--- a/tdcrpy/validation/validationCo-60.xlsx
+++ b/tdcrpy/validation/validationCo-60.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\Code\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC71FB1-14B0-4435-AFDD-798ABE2C2B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705196D3-1B78-40D4-A9E9-A2B402B54C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asymetry" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>Reference Co-60 (NIST)</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>bounded</t>
+  </si>
+  <si>
+    <t>Bounded</t>
+  </si>
+  <si>
+    <t>4.5 decays/s</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>time /h</t>
   </si>
 </sst>
 </file>
@@ -295,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -321,12 +333,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000%"/>
     </dxf>
@@ -3132,6 +3162,462 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Asymetry!$B$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>eff (stochastic)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Asymetry!$C$86:$C$95</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.00265302811656E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0395525828444099E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9879563526973999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.14097567092479E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.7538272730722301E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.13060226043556E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.57491114706141E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.76687281059551E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.30808488959374E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.0922820321060401E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Asymetry!$C$86:$C$95</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.00265302811656E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0395525828444099E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9879563526973999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.14097567092479E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.7538272730722301E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.13060226043556E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.57491114706141E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.76687281059551E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.30808488959374E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.0922820321060401E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Asymetry!$A$86:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Asymetry!$B$86:$B$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.99999216835217397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96730643021373397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97585229746394497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97232382002585904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97681024324505505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96737858689582001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96698493573115896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97243306327952295</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97144522300455105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96949997275820399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-187C-4BE5-B87A-59C9D9AF1F3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="377683408"/>
+        <c:axId val="377673808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="377683408"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377673808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="377673808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377683408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3252,6 +3738,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4285,6 +4811,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4914,6 +5956,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D54FA8-4F9D-36A2-1118-C6B1625A9973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4922,30 +6000,30 @@
   <autoFilter ref="A14:I31" xr:uid="{CE154909-7646-477D-8B60-509F398D009F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DDAABB74-83B7-4A9A-A978-ACBC6E410C19}" name="N"/>
-    <tableColumn id="2" xr3:uid="{0AA70936-8F84-45A0-BDA6-0B48F50D8456}" name="eff (stochastic)" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{CC8B2236-DD4D-4D4A-B450-AF4A42700DB8}" name="u(eff)" dataDxfId="18" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{0AA70936-8F84-45A0-BDA6-0B48F50D8456}" name="eff (stochastic)" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{CC8B2236-DD4D-4D4A-B450-AF4A42700DB8}" name="u(eff)" dataDxfId="23" dataCellStyle="Percent"/>
     <tableColumn id="3" xr3:uid="{F519117B-BD8C-4D86-8925-34E52A9B33AA}" name="time /s"/>
-    <tableColumn id="4" xr3:uid="{4C05EF6D-660F-41D6-BD8A-A706F835288E}" name="error" dataDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{4C05EF6D-660F-41D6-BD8A-A706F835288E}" name="error" dataDxfId="22" dataCellStyle="Percent">
       <calculatedColumnFormula>B15/B$5-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C52CC8CE-0CF9-4BDD-85DA-B7B7E424ADFB}" name="L /keV-1" dataDxfId="16" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{FF4F8F5D-D5E2-4E8C-95FD-6BDE1A995214}" name="LA /keV-1" dataDxfId="15" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{AD370BAA-110E-45FB-8017-6C63B1F0C6DC}" name="LB /keV-1" dataDxfId="14" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{0D9EDC29-DB17-43EE-9A9E-873BA5DEC89A}" name="LC /keV-1" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{C52CC8CE-0CF9-4BDD-85DA-B7B7E424ADFB}" name="L /keV-1" dataDxfId="21" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{FF4F8F5D-D5E2-4E8C-95FD-6BDE1A995214}" name="LA /keV-1" dataDxfId="20" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{AD370BAA-110E-45FB-8017-6C63B1F0C6DC}" name="LB /keV-1" dataDxfId="19" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{0D9EDC29-DB17-43EE-9A9E-873BA5DEC89A}" name="LC /keV-1" dataDxfId="18" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B1A0E7B8-D1BC-47E5-92B3-1AE140DABEDC}" name="Table2" displayName="Table2" ref="A45:F54" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B1A0E7B8-D1BC-47E5-92B3-1AE140DABEDC}" name="Table2" displayName="Table2" ref="A45:F54" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A45:F54" xr:uid="{B1A0E7B8-D1BC-47E5-92B3-1AE140DABEDC}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2A7212F2-06BB-4D63-B68E-00B66F9BA6D8}" name="N"/>
-    <tableColumn id="2" xr3:uid="{D4B2378E-DEE0-403B-9A01-7D7DAF895C2A}" name="eff (stochastic)" dataDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{DCBF8CA2-4B7B-45F6-A4C1-21C25175DEC1}" name="std" dataDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{D4B2378E-DEE0-403B-9A01-7D7DAF895C2A}" name="eff (stochastic)" dataDxfId="14" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{DCBF8CA2-4B7B-45F6-A4C1-21C25175DEC1}" name="std" dataDxfId="13" dataCellStyle="Percent"/>
     <tableColumn id="3" xr3:uid="{76B9D488-065E-48FD-8C5C-DFB2F4A7C18C}" name="time /s"/>
-    <tableColumn id="4" xr3:uid="{B3632296-46F8-4FFB-B621-41267E9BD825}" name="error" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{B3632296-46F8-4FFB-B621-41267E9BD825}" name="error" dataDxfId="12">
       <calculatedColumnFormula>B46/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{FC6E204E-4636-4F11-8582-10674B968FF7}" name="L /keV-1"/>
@@ -4955,14 +6033,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}" name="Table24" displayName="Table24" ref="A62:F71" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}" name="Table24" displayName="Table24" ref="A62:F71" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A62:F71" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{8F2C12A2-FD44-4CE7-AE3E-946D17F8E77D}" name="N"/>
-    <tableColumn id="2" xr3:uid="{DFE623A6-4D03-4FC8-8636-F552CAFF9337}" name="eff (stochastic)" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{79B4CF1D-0184-4DC2-9C5F-BA40F6EAABC6}" name="std" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{DFE623A6-4D03-4FC8-8636-F552CAFF9337}" name="eff (stochastic)" dataDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{79B4CF1D-0184-4DC2-9C5F-BA40F6EAABC6}" name="std" dataDxfId="7" dataCellStyle="Percent"/>
     <tableColumn id="3" xr3:uid="{7F75FB14-269C-48EF-ACB6-BFCBC8D8F3E9}" name="time /s"/>
-    <tableColumn id="4" xr3:uid="{5373102D-9EEB-4008-B4E8-DDFBFA8B5659}" name="error" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{5373102D-9EEB-4008-B4E8-DDFBFA8B5659}" name="error" dataDxfId="6">
       <calculatedColumnFormula>B63/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{2EA1A9A7-9F1E-4C41-8D47-473AFC686CDF}" name="L /keV-1"/>
@@ -4979,10 +6057,33 @@
     <tableColumn id="2" xr3:uid="{4C63FD53-4E05-49BB-AE06-25A9EA64DA2A}" name="eff"/>
     <tableColumn id="3" xr3:uid="{5F8FF70E-D2C0-49A0-8AE0-991399ADA1AA}" name="u"/>
     <tableColumn id="4" xr3:uid="{2CB36EE8-CC8A-4E9E-A506-DCD96BBC92F2}" name="time /s"/>
-    <tableColumn id="5" xr3:uid="{9D6C63CC-25B7-465E-BA81-97F393A00604}" name="error" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{9D6C63CC-25B7-465E-BA81-97F393A00604}" name="error" dataDxfId="5">
       <calculatedColumnFormula>B76/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{8A97AEEF-A278-406A-9A09-82BAB22A8485}" name="L/keV-1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{02403DAC-D5F4-4847-B640-D5ABB9BC5109}" name="Table4" displayName="Table4" ref="A85:H95" totalsRowShown="0">
+  <autoFilter ref="A85:H95" xr:uid="{02403DAC-D5F4-4847-B640-D5ABB9BC5109}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F20144C8-F0B1-443F-8ACE-7A8491A3BD44}" name="N"/>
+    <tableColumn id="2" xr3:uid="{6D4919DB-A5DF-45B0-BB6B-C4792284C9D8}" name="eff (stochastic)" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{CA5A0DF5-F5FE-4A6F-A33C-CC982089C42E}" name="std" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{18704ADD-5A08-490C-8CA4-93F4A0C99976}" name="time /s"/>
+    <tableColumn id="5" xr3:uid="{6B02D242-A899-4DBA-9577-367B45D4142B}" name="error" dataDxfId="4">
+      <calculatedColumnFormula>B86/B$5-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{26A8B87D-A16A-4AF0-BC8E-1B00C8A244CE}" name="L /keV-1"/>
+    <tableColumn id="7" xr3:uid="{7C23E836-A52A-498C-86AF-D0584542A557}" name="speed" dataDxfId="3">
+      <calculatedColumnFormula>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{0A312CBD-58B9-48C7-9B79-0F6F994FEA00}" name="time /h" dataDxfId="2">
+      <calculatedColumnFormula>Table4[[#This Row],[time /s]]/3600</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5251,24 +6352,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>13</v>
       </c>
@@ -5279,7 +6380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>15</v>
       </c>
@@ -5290,7 +6391,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5299,7 +6400,7 @@
         <v>0.9742636907501151</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5307,7 +6408,7 @@
         <v>0.9788</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5338,7 +6439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>17</v>
       </c>
@@ -5352,7 +6453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -5372,7 +6473,7 @@
         <v>1.2941300000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5396,7 +6497,7 @@
         <v>1.29413</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -5416,7 +6517,7 @@
         <v>0.9883945110756257</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>32</v>
       </c>
@@ -5424,7 +6525,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -5453,7 +6554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -5481,7 +6582,7 @@
         <v>1.33515603</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20</v>
       </c>
@@ -5509,7 +6610,7 @@
         <v>1.34476956</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>50</v>
       </c>
@@ -5537,7 +6638,7 @@
         <v>1.38125137</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>100</v>
       </c>
@@ -5565,7 +6666,7 @@
         <v>1.2685830600000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>200</v>
       </c>
@@ -5593,7 +6694,7 @@
         <v>1.2981736100000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>500</v>
       </c>
@@ -5621,7 +6722,7 @@
         <v>1.2401983700000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1000</v>
       </c>
@@ -5649,7 +6750,7 @@
         <v>1.30252006</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -5677,7 +6778,7 @@
         <v>1.2810168200000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3000</v>
       </c>
@@ -5705,7 +6806,7 @@
         <v>1.30819452</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4000</v>
       </c>
@@ -5735,7 +6836,7 @@
         <v>1.3425934399999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5000</v>
       </c>
@@ -5763,7 +6864,7 @@
         <v>1.29657143</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6000</v>
       </c>
@@ -5793,7 +6894,7 @@
         <v>1.3236160100000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>7000</v>
       </c>
@@ -5823,7 +6924,7 @@
         <v>1.2536183400000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>8000</v>
       </c>
@@ -5853,7 +6954,7 @@
         <v>1.3328032000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>9000</v>
       </c>
@@ -5883,7 +6984,7 @@
         <v>1.2411934200000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10000</v>
       </c>
@@ -5913,7 +7014,7 @@
         <v>1.2936871700000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20000</v>
       </c>
@@ -5943,12 +7044,12 @@
         <v>1.19452983</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -5956,7 +7057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F35" s="15">
         <f t="shared" ref="F35:H35" si="3">G21/$F$23</f>
         <v>0.97891059344949483</v>
@@ -5970,7 +7071,7 @@
         <v>0.98471833874446468</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F36" s="15">
         <f t="shared" ref="F36:H36" si="4">G22/$F$23</f>
         <v>1.0118334882060473</v>
@@ -5984,7 +7085,7 @@
         <v>0.96846167182570453</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F37" s="15">
         <f>G23/$F$23</f>
         <v>0.98069972918423032</v>
@@ -5998,7 +7099,7 @@
         <v>0.98900828789463124</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F38" s="15">
         <f t="shared" ref="F38:H38" si="5">G24/$F$23</f>
         <v>0.98543679027577979</v>
@@ -6012,7 +7113,7 @@
         <v>1.0150142193172949</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -6029,7 +7130,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
         <v>6</v>
       </c>
@@ -6049,7 +7150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>10</v>
       </c>
@@ -6070,7 +7171,7 @@
         <v>4.76132539402004</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>20</v>
       </c>
@@ -6091,7 +7192,7 @@
         <v>1.56230482634155</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>50</v>
       </c>
@@ -6112,7 +7213,7 @@
         <v>1.0019229842906301</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>100</v>
       </c>
@@ -6133,7 +7234,7 @@
         <v>1.57546064880198</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1000</v>
       </c>
@@ -6154,7 +7255,7 @@
         <v>0.97567425102328897</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2000</v>
       </c>
@@ -6175,7 +7276,7 @@
         <v>0.99882342212500197</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3000</v>
       </c>
@@ -6196,7 +7297,7 @@
         <v>1.0688837073264801</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5000</v>
       </c>
@@ -6217,7 +7318,7 @@
         <v>1.1927623679358801</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>10000</v>
       </c>
@@ -6238,27 +7339,27 @@
         <v>1.0213270926685001</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="E55" s="23"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="E56" s="23"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="E57" s="23"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="E58" s="23"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -6275,7 +7376,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
         <v>6</v>
       </c>
@@ -6295,7 +7396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>10</v>
       </c>
@@ -6316,7 +7417,7 @@
         <v>1.3788447930534999</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>20</v>
       </c>
@@ -6337,7 +7438,7 @@
         <v>1.38270283314251</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>50</v>
       </c>
@@ -6358,7 +7459,7 @@
         <v>0.85410197157480905</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>100</v>
       </c>
@@ -6379,7 +7480,7 @@
         <v>0.98030188273837304</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1000</v>
       </c>
@@ -6400,7 +7501,7 @@
         <v>1.05572808970182</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2000</v>
       </c>
@@ -6421,7 +7522,7 @@
         <v>1.0143478195065401</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3000</v>
       </c>
@@ -6442,7 +7543,7 @@
         <v>1.0212862361646</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>5000</v>
       </c>
@@ -6463,7 +7564,7 @@
         <v>1.0789649162858199</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>10000</v>
       </c>
@@ -6484,12 +7585,12 @@
         <v>1.0902360504508699</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -6509,7 +7610,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -6530,7 +7631,7 @@
         <v>0.99187915307742403</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -6551,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>41</v>
       </c>
@@ -6570,6 +7671,366 @@
       </c>
       <c r="F78" s="5">
         <v>1.0981310341470401</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" t="s">
+        <v>42</v>
+      </c>
+      <c r="H82" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.99999216835217397</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1.00265302811656E-4</v>
+      </c>
+      <c r="E86" s="11">
+        <f t="shared" ref="E86:E94" si="10">B86/B$5-1</f>
+        <v>2.640812528100045E-2</v>
+      </c>
+      <c r="F86">
+        <v>0.99187915307742403</v>
+      </c>
+      <c r="G86">
+        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0.99999216835217397</v>
+      </c>
+      <c r="J86">
+        <v>1.00265302811656E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>20</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.96730643021373397</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2.0395525828444099E-2</v>
+      </c>
+      <c r="E87" s="23">
+        <f t="shared" si="10"/>
+        <v>-7.1410446703854547E-3</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0.96730643021373397</v>
+      </c>
+      <c r="J87">
+        <v>2.0395525828444099E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>50</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.97585229746394497</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1.9879563526973999E-2</v>
+      </c>
+      <c r="D88">
+        <v>288.95583800000003</v>
+      </c>
+      <c r="E88" s="24">
+        <f t="shared" si="10"/>
+        <v>1.6305716090134759E-3</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0.83436854000504701</v>
+      </c>
+      <c r="G88">
+        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
+        <v>5.7791167600000009</v>
+      </c>
+      <c r="H88">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>8.0265510555555558E-2</v>
+      </c>
+      <c r="I88">
+        <v>0.97585229746394497</v>
+      </c>
+      <c r="J88">
+        <v>1.9879563526973999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>100</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.97232382002585904</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1.14097567092479E-2</v>
+      </c>
+      <c r="E89" s="25">
+        <f t="shared" si="10"/>
+        <v>-1.9911146670800184E-3</v>
+      </c>
+      <c r="G89">
+        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0.97232382002585904</v>
+      </c>
+      <c r="J89">
+        <v>1.14097567092479E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1000</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.97681024324505505</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3.7538272730722301E-3</v>
+      </c>
+      <c r="E90" s="25">
+        <f t="shared" si="10"/>
+        <v>2.6138226427994127E-3</v>
+      </c>
+      <c r="G90">
+        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0.97681024324505505</v>
+      </c>
+      <c r="J90">
+        <v>3.7538272730722301E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2000</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.96737858689582001</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3.13060226043556E-3</v>
+      </c>
+      <c r="E91" s="25">
+        <f t="shared" si="10"/>
+        <v>-7.0669818855653155E-3</v>
+      </c>
+      <c r="G91">
+        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0.96737858689582001</v>
+      </c>
+      <c r="J91">
+        <v>3.13060226043556E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>3000</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.96698493573115896</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2.57491114706141E-3</v>
+      </c>
+      <c r="E92" s="25">
+        <f t="shared" si="10"/>
+        <v>-7.4710318038764267E-3</v>
+      </c>
+      <c r="G92">
+        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0.96698493573115896</v>
+      </c>
+      <c r="J92">
+        <v>2.57491114706141E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>5000</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.97243306327952295</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1.76687281059551E-3</v>
+      </c>
+      <c r="E93" s="25">
+        <f t="shared" si="10"/>
+        <v>-1.8789856257320769E-3</v>
+      </c>
+      <c r="G93">
+        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0.97243306327952295</v>
+      </c>
+      <c r="J93">
+        <v>1.76687281059551E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>10000</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.97144522300455105</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1.30808488959374E-3</v>
+      </c>
+      <c r="D94">
+        <v>48573.231963999999</v>
+      </c>
+      <c r="E94" s="25">
+        <f t="shared" si="10"/>
+        <v>-2.8929208512266102E-3</v>
+      </c>
+      <c r="F94">
+        <v>1.1336695346052901</v>
+      </c>
+      <c r="G94">
+        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
+        <v>4.8573231963999994</v>
+      </c>
+      <c r="H94">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>13.492564434444445</v>
+      </c>
+      <c r="I94">
+        <v>0.97144522300455105</v>
+      </c>
+      <c r="J94">
+        <v>1.30808488959374E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>50000</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.96949997275820399</v>
+      </c>
+      <c r="C95" s="27">
+        <v>6.0922820321060401E-4</v>
+      </c>
+      <c r="D95">
+        <v>198915.666834</v>
+      </c>
+      <c r="E95" s="26">
+        <f>B95/B$5-1</f>
+        <v>-4.8895571467344467E-3</v>
+      </c>
+      <c r="F95">
+        <v>1.06414831502961</v>
+      </c>
+      <c r="G95">
+        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
+        <v>3.9783133366799999</v>
+      </c>
+      <c r="H95" s="5">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>55.254351898333333</v>
+      </c>
+      <c r="I95">
+        <v>0.96949997275820399</v>
+      </c>
+      <c r="J95">
+        <v>6.0922820321060401E-4</v>
       </c>
     </row>
   </sheetData>
@@ -6577,11 +8038,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tdcrpy/validation/validationCo-60.xlsx
+++ b/tdcrpy/validation/validationCo-60.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705196D3-1B78-40D4-A9E9-A2B402B54C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D75F218-D811-410F-A105-FD37BA6A09EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Asymetry" sheetId="1" r:id="rId1"/>
+    <sheet name="ModelASym" sheetId="3" r:id="rId1"/>
+    <sheet name="ModelSym" sheetId="2" r:id="rId2"/>
+    <sheet name="Tables" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
   <si>
     <t>Reference Co-60 (NIST)</t>
   </si>
@@ -164,27 +166,52 @@
     <t>bounded</t>
   </si>
   <si>
-    <t>Bounded</t>
-  </si>
-  <si>
-    <t>4.5 decays/s</t>
-  </si>
-  <si>
     <t>speed</t>
   </si>
   <si>
     <t>time /h</t>
+  </si>
+  <si>
+    <t>time/h</t>
+  </si>
+  <si>
+    <t>speed /s</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>N max funct</t>
+  </si>
+  <si>
+    <t>interation</t>
+  </si>
+  <si>
+    <t>decays /s</t>
+  </si>
+  <si>
+    <t>Z-score</t>
+  </si>
+  <si>
+    <t>Bounded is faster but does not work when the range is not closely set. Cannot operate due to large variation of L with various radionuclides. Method Golden gives flexibility to various L.</t>
+  </si>
+  <si>
+    <t>Symetrical model</t>
+  </si>
+  <si>
+    <t>Asymetrical model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -224,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +273,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -315,9 +354,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -336,12 +373,70 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="43">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000%"/>
     </dxf>
@@ -358,10 +453,25 @@
       <numFmt numFmtId="164" formatCode="0.000%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.000%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000%"/>
@@ -409,6 +519,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000%"/>
@@ -582,64 +695,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Deviation to KCRV</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18734859681001415"/>
+          <c:y val="3.2892643299179986E-2"/>
+          <c:w val="0.75453863651658926"/>
+          <c:h val="0.80121123408940331"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -647,18 +715,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Asymetry!$E$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>error</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>estimations</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -666,7 +726,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -679,12 +739,118 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Tables!$C$108:$C$120</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>9.4868382509655805E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.00916893667015E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.5228336935008699E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.46588795948069E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.7130100995358407E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.5270799099533296E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.6328836590388001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.00211494721081E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.1379606387295601E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.66382368565496E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.9672322652768801E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.35211337422687E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Tables!$C$108:$C$120</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>9.4868382509655805E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.00916893667015E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.5228336935008699E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.46588795948069E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.7130100995358407E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.5270799099533296E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.6328836590388001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.00211494721081E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.1379606387295601E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.66382368565496E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.9672322652768801E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.35211337422687E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Asymetry!$A$15:$A$31</c:f>
+              <c:f>Tables!$A$108:$A$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -704,36 +870,24 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -741,60 +895,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Asymetry!$E$15:$E$31</c:f>
+              <c:f>Tables!$B$108:$B$121</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.6416163810667914E-2</c:v>
+                  <c:v>0.89999999999991798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6416163483098387E-2</c:v>
+                  <c:v>0.99997976694522905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.6670526007296385E-4</c:v>
+                  <c:v>0.999834230140207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6135144215668751E-2</c:v>
+                  <c:v>0.97042322392989699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.9413432778758795E-3</c:v>
+                  <c:v>0.974034364549624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8516840734127449E-3</c:v>
+                  <c:v>0.97095748797454795</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2605933701305165E-3</c:v>
+                  <c:v>0.97471052388777801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.2656405807452984E-5</c:v>
+                  <c:v>0.976520694196089</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3118909806824099E-3</c:v>
+                  <c:v>0.97260897655259304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1761314621101526E-3</c:v>
+                  <c:v>0.96885786348300795</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9496344853693355E-3</c:v>
+                  <c:v>0.97283304995231501</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.7124786813385047E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3620162056846574E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.5541375632182088E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.2771832433528019E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.7944003959827768E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.5983760326867547E-3</c:v>
+                  <c:v>0.97291042044462706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -802,7 +941,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D742-4BCA-8E71-41EBB9C8451F}"/>
+              <c16:uniqueId val="{00000000-B2AD-41EF-B22A-61F1635D2294}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -810,55 +949,46 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Analytical model</c:v>
+            <c:v>valeur de référence internationale</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Asymetry!$A$14:$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
+            <c:numRef>
+              <c:f>Tables!$A$86:$A$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>N</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>500</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1000</c:v>
@@ -870,40 +1000,61 @@
                   <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>20000</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Asymetry!$H$5</c:f>
+              <c:f>Tables!$K$86:$K$99</c:f>
               <c:numCache>
-                <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.615121646295071E-3</c:v>
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9742636907501151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -911,7 +1062,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F3A8-48AF-978E-D7B93578E087}"/>
+              <c16:uniqueId val="{00000001-B2AD-41EF-B22A-61F1635D2294}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -923,16 +1074,45 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1655640944"/>
-        <c:axId val="1655651504"/>
+        <c:axId val="377683408"/>
+        <c:axId val="377673808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1655640944"/>
+        <c:axId val="377683408"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -940,7 +1120,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3200" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -953,8 +1133,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>MC trials</a:t>
+                  <a:rPr lang="en-GB" sz="3200" i="1"/>
+                  <a:t>N</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="3200" i="1" baseline="-25000"/>
+                  <a:t>i</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -972,7 +1156,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3200" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -989,7 +1173,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1010,7 +1194,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1025,14 +1209,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1655651504"/>
+        <c:crossAx val="377673808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1655651504"/>
+        <c:axId val="377673808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.94000000000000006"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1050,6 +1235,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1057,7 +1256,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1070,10 +1269,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t>Deviation to KCRV </a:t>
+                  <a:rPr lang="en-GB" sz="3200"/>
+                  <a:t>Efficacité</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1090,7 +1288,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1106,8 +1304,8 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1128,7 +1326,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1143,7 +1341,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1655640944"/>
+        <c:crossAx val="377683408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1157,11 +1355,25 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.46216579850595596"/>
+          <c:y val="4.0227636639759659E-2"/>
+          <c:w val="0.49791700652803017"/>
+          <c:h val="0.1368613845906832"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1170,7 +1382,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1222,11 +1434,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1244,64 +1451,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Free parameters</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17640842586984321"/>
+          <c:y val="3.2892643299179986E-2"/>
+          <c:w val="0.76547880745676022"/>
+          <c:h val="0.80121123408940331"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1309,10 +1471,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Global</c:v>
+            <c:v>estimations</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1320,7 +1482,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1333,12 +1495,124 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Tables!$C$86:$C$98</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>1E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.00004023012459E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.57450069007182E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4501795719273E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.12280905510878E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.3492086640359897E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.9156807982157803E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.13928230830747E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.83597127328472E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.5502114442741801E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.0296784458947201E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.3675480918551499E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.5970702563293899E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Tables!$C$86:$C$98</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>1E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.00004023012459E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.57450069007182E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4501795719273E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.12280905510878E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.3492086640359897E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.9156807982157803E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.13928230830747E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.83597127328472E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.5502114442741801E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.0296784458947201E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.3675480918551499E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.5970702563293899E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Asymetry!$A$15:$A$31</c:f>
+              <c:f>Tables!$A$86:$A$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1358,36 +1632,24 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1395,60 +1657,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Asymetry!$F$15:$F$31</c:f>
+              <c:f>Tables!$B$86:$B$99</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.3071666916143501</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3209213268092199</c:v>
+                  <c:v>0.99999902534551099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3383330375921301</c:v>
+                  <c:v>0.98409092774370999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3071647456267499</c:v>
+                  <c:v>0.99842885364966105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3030254629629601</c:v>
+                  <c:v>0.96602421826473395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3142096779969401</c:v>
+                  <c:v>0.97734125761243695</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3137062757201601</c:v>
+                  <c:v>0.96776028977950501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.31956629774305</c:v>
+                  <c:v>0.97574966077707004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3227336272225201</c:v>
+                  <c:v>0.97619165598090696</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3278649385894501</c:v>
+                  <c:v>0.97279644924364905</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3254062162715099</c:v>
+                  <c:v>0.97080700472807402</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.32083150655864</c:v>
+                  <c:v>0.97283924872993899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.32431181842059</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.34982444438751</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.2056104252400499</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.33391183122806</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.2100420899777</c:v>
+                  <c:v>0.97442273869045803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,7 +1706,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BB19-42D6-94BD-DE210F0C230D}"/>
+              <c16:uniqueId val="{00000000-73E7-4F01-95A7-55B1B885AE09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1464,36 +1714,26 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>A</c:v>
+            <c:v>valeur de référence internationale</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Asymetry!$A$15:$A$31</c:f>
+              <c:f>Tables!$A$86:$A$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1513,36 +1753,24 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1550,60 +1778,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Asymetry!$G$15:$G$31</c:f>
+              <c:f>Tables!$K$86:$K$99</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.2868519199999999</c:v>
+                  <c:v>0.9742636907501151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3084471200000001</c:v>
+                  <c:v>0.9742636907501151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.28764726</c:v>
+                  <c:v>0.9742636907501151</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.27962274</c:v>
+                  <c:v>0.9742636907501151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2581458299999999</c:v>
+                  <c:v>0.9742636907501151</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3452672000000001</c:v>
+                  <c:v>0.9742636907501151</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.29483796</c:v>
+                  <c:v>0.9742636907501151</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3383861800000001</c:v>
+                  <c:v>0.9742636907501151</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.29720451</c:v>
+                  <c:v>0.9742636907501151</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.30347038</c:v>
+                  <c:v>0.9742636907501151</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3094954299999999</c:v>
+                  <c:v>0.9742636907501151</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.30214253</c:v>
+                  <c:v>0.9742636907501151</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3103681300000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3478365999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.21353909</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.30415967</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.2126448599999999</c:v>
+                  <c:v>0.9742636907501151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,317 +1827,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BB19-42D6-94BD-DE210F0C230D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>B</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Asymetry!$A$15:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Asymetry!$H$15:$H$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1.29949213</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3095473</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.34610048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3732884299999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3527569399999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3571634699999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3437608000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3392959</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3628018500000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3375309900000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.37015179</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.33673598</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.4089489799999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3688335199999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.1620987700000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.4038886500000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.2229515799999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BB19-42D6-94BD-DE210F0C230D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>C</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Asymetry!$A$15:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Asymetry!$I$15:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1.33515603</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.34476956</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.38125137</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2685830600000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2981736100000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2401983700000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.30252006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2810168200000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.30819452</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3425934399999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.29657143</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3236160100000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2536183400000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3328032000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.2411934200000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.2936871700000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.19452983</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BB19-42D6-94BD-DE210F0C230D}"/>
+              <c16:uniqueId val="{00000001-73E7-4F01-95A7-55B1B885AE09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1933,16 +1839,45 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1655640944"/>
-        <c:axId val="1655651504"/>
+        <c:axId val="377683408"/>
+        <c:axId val="377673808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1655640944"/>
+        <c:axId val="377683408"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1950,7 +1885,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3200" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1963,8 +1898,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>MC trials</a:t>
+                  <a:rPr lang="en-GB" sz="3200" i="1"/>
+                  <a:t>N</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="3200" i="1" baseline="-25000"/>
+                  <a:t>i</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1982,7 +1921,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3200" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1999,7 +1938,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2020,7 +1959,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2035,12 +1974,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1655651504"/>
+        <c:crossAx val="377673808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1655651504"/>
+        <c:axId val="377673808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,6 +1999,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2067,7 +2020,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2080,16 +2033,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" i="1" baseline="0"/>
-                  <a:t>L</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> /keV</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="30000"/>
-                  <a:t>-1</a:t>
+                  <a:rPr lang="en-GB" sz="3200"/>
+                  <a:t>Efficacité</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2107,7 +2052,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2123,8 +2068,8 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2145,7 +2090,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2160,7 +2105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1655640944"/>
+        <c:crossAx val="377683408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2174,11 +2119,25 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44575554209569951"/>
+          <c:y val="0.16391736410307203"/>
+          <c:w val="0.52116486977589338"/>
+          <c:h val="0.12428283728684858"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -2187,7 +2146,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2239,11 +2198,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2326,10 +2280,18 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>error l0 = 0.5</c:v>
+            <c:strRef>
+              <c:f>Tables!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2350,103 +2312,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Asymetry!$C$46:$C$54</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>5.2350578762301402E-5</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.7151998059231201E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.3704898814054099E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.9299974735150303E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>3.2552150339764498E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.4370764873652899E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1.9328846167121999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1.3103086059575401E-3</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Asymetry!$C$46:$C$54</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>5.2350578762301402E-5</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.7151998059231201E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.3704898814054099E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.9299974735150303E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>3.2552150339764498E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.4370764873652899E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1.9328846167121999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1.3103086059575401E-3</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Asymetry!$A$46:$A$54</c:f>
+              <c:f>Tables!$A$15:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2460,55 +2331,103 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>3000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Asymetry!$E$46:$E$54</c:f>
+              <c:f>Tables!$E$15:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2.6416163810918381E-2</c:v>
+                  <c:v>2.6416163810667914E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6361013738029238E-2</c:v>
+                  <c:v>2.6416163483098387E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.2617610817605751E-6</c:v>
+                  <c:v>-5.6670526007296385E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4475521968595926E-2</c:v>
+                  <c:v>1.6135144215668751E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7637464141415649E-3</c:v>
+                  <c:v>-8.9413432778758795E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.0977264985676554E-3</c:v>
+                  <c:v>6.8516840734127449E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.7516285093787118E-6</c:v>
+                  <c:v>4.2605933701305165E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.1770950027683078E-4</c:v>
+                  <c:v>-2.2656405807452984E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.03912470422474E-4</c:v>
+                  <c:v>5.3118909806824099E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1761314621101526E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9496344853693355E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7124786813385047E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3620162056846574E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5541375632182088E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.2771832433528019E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7944003959827768E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5983760326867547E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2516,7 +2435,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A678-4D1B-A7D3-B0CCB2DCF299}"/>
+              <c16:uniqueId val="{00000000-D742-4BCA-8E71-41EBB9C8451F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2550,7 +2469,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Asymetry!$A$14:$A$31</c:f>
+              <c:f>Tables!$A$14:$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
@@ -2612,7 +2531,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Asymetry!$H$5</c:f>
+              <c:f>Tables!$H$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2625,225 +2544,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A678-4D1B-A7D3-B0CCB2DCF299}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>error L0 = 2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Asymetry!$C$63:$C$71</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9"/>
-                  <c:pt idx="0">
-                    <c:v>9.0054235389743999E-8</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.3457292431222801E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.8425708328747996E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>9.45806051909002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4.4345580902809198E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2.96694676070435E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.7363097635930401E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1.90274375636109E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1.3638326289617201E-3</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Asymetry!$C$63:$C$71</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9"/>
-                  <c:pt idx="0">
-                    <c:v>9.0054235389743999E-8</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.3457292431222801E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.8425708328747996E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>9.45806051909002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4.4345580902809198E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2.96694676070435E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.7363097635930401E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1.90274375636109E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1.3638326289617201E-3</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="fixedVal"/>
-            <c:noEndCap val="0"/>
-            <c:val val="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Asymetry!$A$63:$A$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Asymetry!$E$63:$E$71</c:f>
-              <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2.6416066377851877E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3945849913208583E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2014062778571866E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1976978569415753E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.1970812502546408E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1163970037640922E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-5.709510962779718E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4.9911984637518447E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.2855328266178079E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A678-4D1B-A7D3-B0CCB2DCF299}"/>
+              <c16:uniqueId val="{00000000-F3A8-48AF-978E-D7B93578E087}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3177,6 +2878,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Free parameters</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3216,18 +2942,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Asymetry!$B$85</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>eff (stochastic)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Global</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3248,109 +2966,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Asymetry!$C$86:$C$95</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>1.00265302811656E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.0395525828444099E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.9879563526973999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.14097567092479E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.7538272730722301E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>3.13060226043556E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.57491114706141E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1.76687281059551E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1.30808488959374E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>6.0922820321060401E-4</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Asymetry!$C$86:$C$95</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>1.00265302811656E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.0395525828444099E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.9879563526973999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.14097567092479E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.7538272730722301E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>3.13060226043556E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.57491114706141E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1.76687281059551E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1.30808488959374E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>6.0922820321060401E-4</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Asymetry!$A$86:$A$95</c:f>
+              <c:f>Tables!$A$15:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3364,61 +2985,103 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>3000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>50000</c:v>
+                <c:pt idx="16">
+                  <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Asymetry!$B$86:$B$95</c:f>
+              <c:f>Tables!$F$15:$F$31</c:f>
               <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.99999216835217397</c:v>
+                  <c:v>1.3071666916143501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96730643021373397</c:v>
+                  <c:v>1.3209213268092199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97585229746394497</c:v>
+                  <c:v>1.3383330375921301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97232382002585904</c:v>
+                  <c:v>1.3071647456267499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97681024324505505</c:v>
+                  <c:v>1.3030254629629601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96737858689582001</c:v>
+                  <c:v>1.3142096779969401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96698493573115896</c:v>
+                  <c:v>1.3137062757201601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97243306327952295</c:v>
+                  <c:v>1.31956629774305</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97144522300455105</c:v>
+                  <c:v>1.3227336272225201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96949997275820399</c:v>
+                  <c:v>1.3278649385894501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3254062162715099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.32083150655864</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.32431181842059</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.34982444438751</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2056104252400499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.33391183122806</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2100420899777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3426,7 +3089,472 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-187C-4BE5-B87A-59C9D9AF1F3D}"/>
+              <c16:uniqueId val="{00000000-BB19-42D6-94BD-DE210F0C230D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tables!$A$15:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tables!$G$15:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.2868519199999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3084471200000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.28764726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.27962274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2581458299999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3452672000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.29483796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3383861800000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.29720451</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.30347038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3094954299999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.30214253</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3103681300000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3478365999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.21353909</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.30415967</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2126448599999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BB19-42D6-94BD-DE210F0C230D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tables!$A$15:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tables!$H$15:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.29949213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3095473</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.34610048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3732884299999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3527569399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3571634699999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3437608000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3392959</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3628018500000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3375309900000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.37015179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.33673598</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4089489799999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3688335199999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1620987700000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4038886500000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2229515799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BB19-42D6-94BD-DE210F0C230D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tables!$A$15:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tables!$I$15:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.33515603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.34476956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.38125137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2685830600000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2981736100000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2401983700000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.30252006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2810168200000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.30819452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3425934399999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.29657143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3236160100000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2536183400000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3328032000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2411934200000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2936871700000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.19452983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BB19-42D6-94BD-DE210F0C230D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3438,31 +3566,71 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="377683408"/>
-        <c:axId val="377673808"/>
+        <c:axId val="1655640944"/>
+        <c:axId val="1655651504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="377683408"/>
+        <c:axId val="1655640944"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>MC trials</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3500,12 +3668,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377673808"/>
+        <c:crossAx val="1655651504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="377673808"/>
+        <c:axId val="1655651504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3525,6 +3693,984 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" i="1" baseline="0"/>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> /keV</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:t>-1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1655640944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Deviation to KCRV</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>error l0 = 0.5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Tables!$C$46:$C$54</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.2350578762301402E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.7151998059231201E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.3704898814054099E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.9299974735150303E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.2552150339764498E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.4370764873652899E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.9328846167121999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.3103086059575401E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Tables!$C$46:$C$54</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.2350578762301402E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.7151998059231201E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.3704898814054099E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.9299974735150303E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.2552150339764498E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.4370764873652899E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.9328846167121999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.3103086059575401E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tables!$A$46:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tables!$E$46:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.6416163810918381E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6361013738029238E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.2617610817605751E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4475521968595926E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7637464141415649E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.0977264985676554E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.7516285093787118E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.1770950027683078E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.03912470422474E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A678-4D1B-A7D3-B0CCB2DCF299}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Analytical model</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Tables!$A$14:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tables!$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.615121646295071E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A678-4D1B-A7D3-B0CCB2DCF299}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>error L0 = 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Tables!$C$63:$C$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>9.0054235389743999E-8</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3457292431222801E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.8425708328747996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.45806051909002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.4345580902809198E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.96694676070435E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.7363097635930401E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.90274375636109E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.3638326289617201E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Tables!$C$63:$C$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>9.0054235389743999E-8</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3457292431222801E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.8425708328747996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.45806051909002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.4345580902809198E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.96694676070435E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.7363097635930401E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.90274375636109E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.3638326289617201E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tables!$A$63:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tables!$E$63:$E$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.6416066377851877E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3945849913208583E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2014062778571866E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1976978569415753E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.1970812502546408E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1163970037640922E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.709510962779718E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.9911984637518447E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2855328266178079E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A678-4D1B-A7D3-B0CCB2DCF299}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1655640944"/>
+        <c:axId val="1655651504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1655640944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>MC trials</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1655651504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1655651504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t>Deviation to KCRV </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3562,7 +4708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377683408"/>
+        <c:crossAx val="1655640944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3574,6 +4720,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3778,6 +4955,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5842,7 +7059,611 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4434FB49-F30B-4A57-9D0C-867DA7683F38}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F388A5FC-AE15-4458-B3E9-16AF6815805A}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9286875" cy="6057900"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE54EF5E-F782-4DBD-F28A-302A65AB5BEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9286875" cy="6057900"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B3B4942-D9C4-7968-1F50-2B1B5C731F9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5920,16 +7741,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>325755</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>162878</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>340995</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>25718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5956,42 +7777,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D54FA8-4F9D-36A2-1118-C6B1625A9973}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6000,30 +7785,30 @@
   <autoFilter ref="A14:I31" xr:uid="{CE154909-7646-477D-8B60-509F398D009F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DDAABB74-83B7-4A9A-A978-ACBC6E410C19}" name="N"/>
-    <tableColumn id="2" xr3:uid="{0AA70936-8F84-45A0-BDA6-0B48F50D8456}" name="eff (stochastic)" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{CC8B2236-DD4D-4D4A-B450-AF4A42700DB8}" name="u(eff)" dataDxfId="23" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{0AA70936-8F84-45A0-BDA6-0B48F50D8456}" name="eff (stochastic)" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{CC8B2236-DD4D-4D4A-B450-AF4A42700DB8}" name="u(eff)" dataDxfId="41" dataCellStyle="Percent"/>
     <tableColumn id="3" xr3:uid="{F519117B-BD8C-4D86-8925-34E52A9B33AA}" name="time /s"/>
-    <tableColumn id="4" xr3:uid="{4C05EF6D-660F-41D6-BD8A-A706F835288E}" name="error" dataDxfId="22" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{4C05EF6D-660F-41D6-BD8A-A706F835288E}" name="error" dataDxfId="40" dataCellStyle="Percent">
       <calculatedColumnFormula>B15/B$5-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C52CC8CE-0CF9-4BDD-85DA-B7B7E424ADFB}" name="L /keV-1" dataDxfId="21" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{FF4F8F5D-D5E2-4E8C-95FD-6BDE1A995214}" name="LA /keV-1" dataDxfId="20" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{AD370BAA-110E-45FB-8017-6C63B1F0C6DC}" name="LB /keV-1" dataDxfId="19" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{0D9EDC29-DB17-43EE-9A9E-873BA5DEC89A}" name="LC /keV-1" dataDxfId="18" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{C52CC8CE-0CF9-4BDD-85DA-B7B7E424ADFB}" name="L /keV-1" dataDxfId="39" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{FF4F8F5D-D5E2-4E8C-95FD-6BDE1A995214}" name="LA /keV-1" dataDxfId="38" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{AD370BAA-110E-45FB-8017-6C63B1F0C6DC}" name="LB /keV-1" dataDxfId="37" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{0D9EDC29-DB17-43EE-9A9E-873BA5DEC89A}" name="LC /keV-1" dataDxfId="36" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B1A0E7B8-D1BC-47E5-92B3-1AE140DABEDC}" name="Table2" displayName="Table2" ref="A45:F54" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B1A0E7B8-D1BC-47E5-92B3-1AE140DABEDC}" name="Table2" displayName="Table2" ref="A45:F54" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
   <autoFilter ref="A45:F54" xr:uid="{B1A0E7B8-D1BC-47E5-92B3-1AE140DABEDC}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2A7212F2-06BB-4D63-B68E-00B66F9BA6D8}" name="N"/>
-    <tableColumn id="2" xr3:uid="{D4B2378E-DEE0-403B-9A01-7D7DAF895C2A}" name="eff (stochastic)" dataDxfId="14" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{DCBF8CA2-4B7B-45F6-A4C1-21C25175DEC1}" name="std" dataDxfId="13" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{76B9D488-065E-48FD-8C5C-DFB2F4A7C18C}" name="time /s"/>
-    <tableColumn id="4" xr3:uid="{B3632296-46F8-4FFB-B621-41267E9BD825}" name="error" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{D4B2378E-DEE0-403B-9A01-7D7DAF895C2A}" name="eff (stochastic)" dataDxfId="32" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{DCBF8CA2-4B7B-45F6-A4C1-21C25175DEC1}" name="std" dataDxfId="31" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{76B9D488-065E-48FD-8C5C-DFB2F4A7C18C}" name="time /s" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{B3632296-46F8-4FFB-B621-41267E9BD825}" name="error" dataDxfId="29">
       <calculatedColumnFormula>B46/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{FC6E204E-4636-4F11-8582-10674B968FF7}" name="L /keV-1"/>
@@ -6033,56 +7818,102 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}" name="Table24" displayName="Table24" ref="A62:F71" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A62:F71" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}" name="Table24" displayName="Table24" ref="A62:H71" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="A62:H71" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8F2C12A2-FD44-4CE7-AE3E-946D17F8E77D}" name="N"/>
-    <tableColumn id="2" xr3:uid="{DFE623A6-4D03-4FC8-8636-F552CAFF9337}" name="eff (stochastic)" dataDxfId="8" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{79B4CF1D-0184-4DC2-9C5F-BA40F6EAABC6}" name="std" dataDxfId="7" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{7F75FB14-269C-48EF-ACB6-BFCBC8D8F3E9}" name="time /s"/>
-    <tableColumn id="4" xr3:uid="{5373102D-9EEB-4008-B4E8-DDFBFA8B5659}" name="error" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{DFE623A6-4D03-4FC8-8636-F552CAFF9337}" name="eff (stochastic)" dataDxfId="25" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{79B4CF1D-0184-4DC2-9C5F-BA40F6EAABC6}" name="std" dataDxfId="24" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{7F75FB14-269C-48EF-ACB6-BFCBC8D8F3E9}" name="time /s" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{5373102D-9EEB-4008-B4E8-DDFBFA8B5659}" name="error" dataDxfId="22">
       <calculatedColumnFormula>B63/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{2EA1A9A7-9F1E-4C41-8D47-473AFC686CDF}" name="L /keV-1"/>
+    <tableColumn id="6" xr3:uid="{6FA56703-B0EB-4061-BA8B-CBE48889BD88}" name="speed" dataDxfId="21">
+      <calculatedColumnFormula>Table24[[#This Row],[N]]/Table24[[#This Row],[time /s]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{4668A5EC-12A1-4427-BA2D-CC7DA1B9E712}" name="time/h" dataDxfId="20">
+      <calculatedColumnFormula>Table24[[#This Row],[time /s]]/3600</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5754EABE-BCB3-4E1A-9DB8-2647BBDDC114}" name="Table5" displayName="Table5" ref="A75:F78" totalsRowShown="0">
-  <autoFilter ref="A75:F78" xr:uid="{5754EABE-BCB3-4E1A-9DB8-2647BBDDC114}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5754EABE-BCB3-4E1A-9DB8-2647BBDDC114}" name="Table5" displayName="Table5" ref="A75:H78" totalsRowShown="0">
+  <autoFilter ref="A75:H78" xr:uid="{5754EABE-BCB3-4E1A-9DB8-2647BBDDC114}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{174981E2-18F0-4578-87C4-D60BCD6AD8B8}" name="Method"/>
-    <tableColumn id="2" xr3:uid="{4C63FD53-4E05-49BB-AE06-25A9EA64DA2A}" name="eff"/>
-    <tableColumn id="3" xr3:uid="{5F8FF70E-D2C0-49A0-8AE0-991399ADA1AA}" name="u"/>
-    <tableColumn id="4" xr3:uid="{2CB36EE8-CC8A-4E9E-A506-DCD96BBC92F2}" name="time /s"/>
-    <tableColumn id="5" xr3:uid="{9D6C63CC-25B7-465E-BA81-97F393A00604}" name="error" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{4C63FD53-4E05-49BB-AE06-25A9EA64DA2A}" name="eff" dataDxfId="19" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{5F8FF70E-D2C0-49A0-8AE0-991399ADA1AA}" name="u" dataDxfId="18" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{2CB36EE8-CC8A-4E9E-A506-DCD96BBC92F2}" name="time /s" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{9D6C63CC-25B7-465E-BA81-97F393A00604}" name="error" dataDxfId="16">
       <calculatedColumnFormula>B76/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{8A97AEEF-A278-406A-9A09-82BAB22A8485}" name="L/keV-1"/>
+    <tableColumn id="7" xr3:uid="{18402C67-F13C-4B86-92DE-7941792C7C21}" name="speed" dataDxfId="15">
+      <calculatedColumnFormula>10000/Table5[[#This Row],[time /s]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{AC928F03-2BC6-4639-8B90-568D89035180}" name="time/h" dataDxfId="14">
+      <calculatedColumnFormula>Table5[[#This Row],[time /s]]/3600</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{02403DAC-D5F4-4847-B640-D5ABB9BC5109}" name="Table4" displayName="Table4" ref="A85:H95" totalsRowShown="0">
-  <autoFilter ref="A85:H95" xr:uid="{02403DAC-D5F4-4847-B640-D5ABB9BC5109}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{02403DAC-D5F4-4847-B640-D5ABB9BC5109}" name="Table4" displayName="Table4" ref="A85:J99" totalsRowShown="0">
+  <autoFilter ref="A85:J99" xr:uid="{02403DAC-D5F4-4847-B640-D5ABB9BC5109}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F20144C8-F0B1-443F-8ACE-7A8491A3BD44}" name="N"/>
-    <tableColumn id="2" xr3:uid="{6D4919DB-A5DF-45B0-BB6B-C4792284C9D8}" name="eff (stochastic)" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{CA5A0DF5-F5FE-4A6F-A33C-CC982089C42E}" name="std" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{6D4919DB-A5DF-45B0-BB6B-C4792284C9D8}" name="eff (stochastic)" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{CA5A0DF5-F5FE-4A6F-A33C-CC982089C42E}" name="std" dataDxfId="12" dataCellStyle="Percent"/>
     <tableColumn id="4" xr3:uid="{18704ADD-5A08-490C-8CA4-93F4A0C99976}" name="time /s"/>
-    <tableColumn id="5" xr3:uid="{6B02D242-A899-4DBA-9577-367B45D4142B}" name="error" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{24E1A1F8-7146-4275-9A11-ECCF568B0B0E}" name="interation" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{6B02D242-A899-4DBA-9577-367B45D4142B}" name="error" dataDxfId="10">
       <calculatedColumnFormula>B86/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{26A8B87D-A16A-4AF0-BC8E-1B00C8A244CE}" name="L /keV-1"/>
-    <tableColumn id="7" xr3:uid="{7C23E836-A52A-498C-86AF-D0584542A557}" name="speed" dataDxfId="3">
-      <calculatedColumnFormula>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{7C23E836-A52A-498C-86AF-D0584542A557}" name="speed /s" dataDxfId="9">
+      <calculatedColumnFormula>Table4[[#This Row],[N]]*Table4[[#This Row],[interation]]/Table4[[#This Row],[time /s]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0A312CBD-58B9-48C7-9B79-0F6F994FEA00}" name="time /h" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{0A312CBD-58B9-48C7-9B79-0F6F994FEA00}" name="time /h" dataDxfId="8">
       <calculatedColumnFormula>Table4[[#This Row],[time /s]]/3600</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{0C660F51-E374-40AD-A647-0D23A74A704A}" name="Z-score" dataDxfId="7">
+      <calculatedColumnFormula>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BD8F3B19-3AF7-4026-99BD-ABC18E124E71}" name="Table47" displayName="Table47" ref="A107:M121" totalsRowShown="0">
+  <autoFilter ref="A107:M121" xr:uid="{BD8F3B19-3AF7-4026-99BD-ABC18E124E71}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{2034803E-B4B6-4901-A5F9-C484A76FD21C}" name="N"/>
+    <tableColumn id="2" xr3:uid="{AC62611A-36F0-4490-BE29-4F5C95567877}" name="eff (stochastic)" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{8A3D8C01-2B92-4C5B-81E8-E7BF75D17D6E}" name="std" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{F780DF52-214B-4153-B238-79C45B603F23}" name="time /s"/>
+    <tableColumn id="9" xr3:uid="{7FC33D46-B3E6-4ADA-AC9B-FDF0C695575A}" name="interation" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{51424C08-23C8-4135-A6F9-E6E1E3E9E069}" name="error" dataDxfId="0">
+      <calculatedColumnFormula>B108/B$5-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{373866C6-6FF2-4DF9-8031-12E64AF26EE9}" name="L /keV-1"/>
+    <tableColumn id="13" xr3:uid="{08D2C2DF-FD03-4D21-8243-DBD2E4E3B946}" name="LA /keV-1"/>
+    <tableColumn id="12" xr3:uid="{60D36303-EAB7-40E2-8770-E17A8B5DD3AE}" name="LB /keV-1"/>
+    <tableColumn id="11" xr3:uid="{FD3C92D0-B313-468F-9F2B-72309F29573B}" name="LC /keV-1"/>
+    <tableColumn id="7" xr3:uid="{013B7DB1-A952-4323-BD1D-3018A2EBCF91}" name="speed /s" dataDxfId="3">
+      <calculatedColumnFormula>Table47[[#This Row],[N]]*Table47[[#This Row],[interation]]/Table47[[#This Row],[time /s]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{2142541B-6C24-4D72-823E-46165F298113}" name="time /h" dataDxfId="2">
+      <calculatedColumnFormula>Table47[[#This Row],[time /s]]/3600</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{BF5DCFC9-8584-484D-B4FC-744740AAE63E}" name="Z-score" dataDxfId="1">
+      <calculatedColumnFormula>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6352,10 +8183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6367,6 +8198,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -6412,7 +8244,7 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <f>E3</f>
         <v>0.9742636907501151</v>
       </c>
@@ -6504,15 +8336,15 @@
       <c r="B10">
         <v>0.99275350064608003</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <f>F9/$E$9</f>
         <v>0.99532174266399465</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="13">
         <f t="shared" ref="G10:H10" si="1">G9/$E$9</f>
         <v>1.0211518388402503</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="13">
         <f t="shared" si="1"/>
         <v>0.9883945110756257</v>
       </c>
@@ -6558,7 +8390,7 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <v>0.99999999999975597</v>
       </c>
       <c r="C15" s="1"/>
@@ -6569,16 +8401,16 @@
         <f t="shared" ref="E15:E31" si="2">B15/B$5-1</f>
         <v>2.6416163810667914E-2</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <v>1.3071666916143501</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="8">
         <v>1.2868519199999999</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="8">
         <v>1.29949213</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="8">
         <v>1.33515603</v>
       </c>
     </row>
@@ -6586,7 +8418,7 @@
       <c r="A16">
         <v>20</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <v>0.99999999968061704</v>
       </c>
       <c r="C16" s="1"/>
@@ -6597,16 +8429,16 @@
         <f t="shared" si="2"/>
         <v>2.6416163483098387E-2</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <v>1.3209213268092199</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="8">
         <v>1.3084471200000001</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="8">
         <v>1.3095473</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="8">
         <v>1.34476956</v>
       </c>
     </row>
@@ -6614,7 +8446,7 @@
       <c r="A17">
         <v>50</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>0.97371157039186895</v>
       </c>
       <c r="C17" s="1"/>
@@ -6625,16 +8457,16 @@
         <f t="shared" si="2"/>
         <v>-5.6670526007296385E-4</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="8">
         <v>1.3383330375921301</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="8">
         <v>1.28764726</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <v>1.34610048</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="8">
         <v>1.38125137</v>
       </c>
     </row>
@@ -6642,7 +8474,7 @@
       <c r="A18">
         <v>100</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <v>0.98998357590445796</v>
       </c>
       <c r="C18" s="1"/>
@@ -6653,16 +8485,16 @@
         <f t="shared" si="2"/>
         <v>1.6135144215668751E-2</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <v>1.3071647456267499</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="8">
         <v>1.27962274</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="8">
         <v>1.3732884299999999</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="8">
         <v>1.2685830600000001</v>
       </c>
     </row>
@@ -6670,7 +8502,7 @@
       <c r="A19">
         <v>200</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <v>0.96555246464794797</v>
       </c>
       <c r="C19" s="1"/>
@@ -6681,16 +8513,16 @@
         <f t="shared" si="2"/>
         <v>-8.9413432778758795E-3</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="8">
         <v>1.3030254629629601</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="8">
         <v>1.2581458299999999</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="8">
         <v>1.3527569399999999</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="8">
         <v>1.2981736100000001</v>
       </c>
     </row>
@@ -6698,7 +8530,7 @@
       <c r="A20">
         <v>500</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <v>0.98093903776333202</v>
       </c>
       <c r="C20" s="1"/>
@@ -6709,16 +8541,16 @@
         <f t="shared" si="2"/>
         <v>6.8516840734127449E-3</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="8">
         <v>1.3142096779969401</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="8">
         <v>1.3452672000000001</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="8">
         <v>1.3571634699999999</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="8">
         <v>1.2401983700000001</v>
       </c>
     </row>
@@ -6726,7 +8558,7 @@
       <c r="A21">
         <v>1000</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>0.97841463217168401</v>
       </c>
       <c r="C21" s="1"/>
@@ -6737,16 +8569,16 @@
         <f t="shared" si="2"/>
         <v>4.2605933701305165E-3</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="8">
         <v>1.3137062757201601</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="8">
         <v>1.29483796</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="8">
         <v>1.3437608000000001</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="8">
         <v>1.30252006</v>
       </c>
     </row>
@@ -6754,7 +8586,7 @@
       <c r="A22">
         <v>2000</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="14">
         <v>0.974241617436574</v>
       </c>
       <c r="C22" s="1"/>
@@ -6765,16 +8597,16 @@
         <f t="shared" si="2"/>
         <v>-2.2656405807452984E-5</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <v>1.31956629774305</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="8">
         <v>1.3383861800000001</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="8">
         <v>1.3392959</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="8">
         <v>1.2810168200000001</v>
       </c>
     </row>
@@ -6782,7 +8614,7 @@
       <c r="A23">
         <v>3000</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="14">
         <v>0.979438873261817</v>
       </c>
       <c r="C23" s="1"/>
@@ -6793,16 +8625,16 @@
         <f t="shared" si="2"/>
         <v>5.3118909806824099E-3</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="8">
         <v>1.3227336272225201</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="8">
         <v>1.29720451</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="8">
         <v>1.3628018500000001</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="8">
         <v>1.30819452</v>
       </c>
     </row>
@@ -6810,7 +8642,7 @@
       <c r="A24">
         <v>4000</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="14">
         <v>0.97540955292919795</v>
       </c>
       <c r="C24" s="1">
@@ -6823,16 +8655,16 @@
         <f t="shared" si="2"/>
         <v>1.1761314621101526E-3</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="8">
         <v>1.3278649385894501</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="8">
         <v>1.30347038</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="8">
         <v>1.3375309900000001</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="8">
         <v>1.3425934399999999</v>
       </c>
     </row>
@@ -6840,7 +8672,7 @@
       <c r="A25">
         <v>5000</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="14">
         <v>0.97811167622094497</v>
       </c>
       <c r="C25" s="1"/>
@@ -6851,16 +8683,16 @@
         <f t="shared" si="2"/>
         <v>3.9496344853693355E-3</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="8">
         <v>1.3254062162715099</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="8">
         <v>1.3094954299999999</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="8">
         <v>1.37015179</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="8">
         <v>1.29657143</v>
       </c>
     </row>
@@ -6868,29 +8700,29 @@
       <c r="A26">
         <v>6000</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="14">
         <v>0.97788062393202702</v>
       </c>
       <c r="C26" s="1">
         <v>1.57705246774949E-3</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="15">
         <v>10242.793486</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="2"/>
         <v>3.7124786813385047E-3</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="8">
         <v>1.32083150655864</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="8">
         <v>1.30214253</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="8">
         <v>1.33673598</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="8">
         <v>1.3236160100000001</v>
       </c>
     </row>
@@ -6898,29 +8730,29 @@
       <c r="A27">
         <v>7000</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="14">
         <v>0.975590653685527</v>
       </c>
       <c r="C27" s="1">
         <v>1.5623459098259699E-3</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="15">
         <v>12233</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="2"/>
         <v>1.3620162056846574E-3</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="8">
         <v>1.32431181842059</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <v>1.3103681300000001</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="8">
         <v>1.4089489799999999</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="8">
         <v>1.2536183400000001</v>
       </c>
     </row>
@@ -6928,29 +8760,29 @@
       <c r="A28">
         <v>8000</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="14">
         <v>0.97967488531139002</v>
       </c>
       <c r="C28" s="1">
         <v>1.3326393393106801E-3</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="15">
         <v>15302.657252999999</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="2"/>
         <v>5.5541375632182088E-3</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="8">
         <v>1.34982444438751</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="8">
         <v>1.3478365999999999</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="8">
         <v>1.3688335199999999</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="8">
         <v>1.3328032000000001</v>
       </c>
     </row>
@@ -6958,29 +8790,29 @@
       <c r="A29">
         <v>9000</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="18">
         <v>0.97432484706725697</v>
       </c>
       <c r="C29" s="1">
         <v>1.4294584916424401E-3</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="15">
         <v>14955</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="2"/>
         <v>6.2771832433528019E-5</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="16">
         <v>1.2056104252400499</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="8">
         <v>1.21353909</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="8">
         <v>1.1620987700000001</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="8">
         <v>1.2411934200000001</v>
       </c>
     </row>
@@ -6988,7 +8820,7 @@
       <c r="A30">
         <v>10000</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="14">
         <v>0.97698617359333895</v>
       </c>
       <c r="C30" s="1">
@@ -7001,16 +8833,16 @@
         <f t="shared" si="2"/>
         <v>2.7944003959827768E-3</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="8">
         <v>1.33391183122806</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="8">
         <v>1.30415967</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="8">
         <v>1.4038886500000001</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="8">
         <v>1.2936871700000001</v>
       </c>
     </row>
@@ -7018,7 +8850,7 @@
       <c r="A31">
         <v>20000</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="14">
         <v>0.97582093048292695</v>
       </c>
       <c r="C31" s="1">
@@ -7031,16 +8863,16 @@
         <f t="shared" si="2"/>
         <v>1.5983760326867547E-3</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="8">
         <v>1.2100420899777</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="8">
         <v>1.2126448599999999</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="8">
         <v>1.2229515799999999</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="8">
         <v>1.19452983</v>
       </c>
     </row>
@@ -7058,57 +8890,57 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F35" s="15">
+      <c r="F35" s="13">
         <f t="shared" ref="F35:H35" si="3">G21/$F$23</f>
         <v>0.97891059344949483</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="13">
         <f t="shared" si="3"/>
         <v>1.0158967552837022</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="13">
         <f t="shared" si="3"/>
         <v>0.98471833874446468</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F36" s="15">
+      <c r="F36" s="13">
         <f t="shared" ref="F36:H36" si="4">G22/$F$23</f>
         <v>1.0118334882060473</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="13">
         <f t="shared" si="4"/>
         <v>1.0125212457267434</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="13">
         <f t="shared" si="4"/>
         <v>0.96846167182570453</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F37" s="15">
+      <c r="F37" s="13">
         <f>G23/$F$23</f>
         <v>0.98069972918423032</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="13">
         <f>H23/$F$23</f>
         <v>1.0302919816604461</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="13">
         <f>I23/$F$23</f>
         <v>0.98900828789463124</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F38" s="15">
+      <c r="F38" s="13">
         <f t="shared" ref="F38:H38" si="5">G24/$F$23</f>
         <v>0.98543679027577979</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="13">
         <f t="shared" si="5"/>
         <v>1.0111869559168549</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="13">
         <f t="shared" si="5"/>
         <v>1.0150142193172949</v>
       </c>
@@ -7131,22 +8963,22 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="20" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7154,41 +8986,41 @@
       <c r="A46" s="6">
         <v>10</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="9">
         <v>1</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="9">
         <v>0</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="28">
         <v>5.2425560000000004</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="9">
         <f t="shared" ref="E46:E49" si="6">B46/B$5-1</f>
         <v>2.6416163810918381E-2</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="10">
         <v>4.76132539402004</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <v>20</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="11">
         <v>0.99994626928644204</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="11">
         <v>5.2350578762301402E-5</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="29">
         <v>11.377882</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="11">
         <f t="shared" si="6"/>
         <v>2.6361013738029238E-2</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="12">
         <v>1.56230482634155</v>
       </c>
     </row>
@@ -7196,45 +9028,45 @@
       <c r="A48" s="6">
         <v>50</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="9">
         <v>0.97425759014365299</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="9">
         <v>1.7151998059231201E-2</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="28">
         <v>28.254159999999999</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="9">
         <f t="shared" si="6"/>
         <v>-6.2617610817605751E-6</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="10">
         <v>1.0019229842906301</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
         <v>100</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="11">
         <v>0.99810930311627499</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="11">
         <v>1.3704898814054099E-3</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="29">
         <v>55.383166000000003</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="11">
         <f t="shared" si="6"/>
         <v>2.4475521968595926E-2</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="12">
         <v>1.57546064880198</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1000</v>
       </c>
@@ -7244,7 +9076,7 @@
       <c r="C50" s="1">
         <v>3.9299974735150303E-3</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="15">
         <v>568.85709999999995</v>
       </c>
       <c r="E50" s="1">
@@ -7255,7 +9087,7 @@
         <v>0.97567425102328897</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2000</v>
       </c>
@@ -7265,7 +9097,7 @@
       <c r="C51" s="1">
         <v>3.2552150339764498E-3</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="15">
         <v>1177.683</v>
       </c>
       <c r="E51" s="1">
@@ -7276,7 +9108,7 @@
         <v>0.99882342212500197</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3000</v>
       </c>
@@ -7286,10 +9118,10 @@
       <c r="C52" s="1">
         <v>2.4370764873652899E-3</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="15">
         <v>1751.653804</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="21">
         <f>B52/B$5-1</f>
         <v>-2.7516285093787118E-6</v>
       </c>
@@ -7297,7 +9129,7 @@
         <v>1.0688837073264801</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5000</v>
       </c>
@@ -7307,10 +9139,10 @@
       <c r="C53" s="1">
         <v>1.9328846167121999E-3</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="15">
         <v>2804.289049</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="21">
         <f>B53/B$5-1</f>
         <v>-7.1770950027683078E-4</v>
       </c>
@@ -7318,7 +9150,7 @@
         <v>1.1927623679358801</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>10000</v>
       </c>
@@ -7328,10 +9160,10 @@
       <c r="C54" s="1">
         <v>1.3103086059575401E-3</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="15">
         <v>5691.679948</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="21">
         <f>B54/B$5-1</f>
         <v>5.03912470422474E-4</v>
       </c>
@@ -7339,27 +9171,27 @@
         <v>1.0213270926685001</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="E55" s="23"/>
+      <c r="E55" s="21"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="E56" s="23"/>
+      <c r="E56" s="21"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="E57" s="23"/>
+      <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="E58" s="23"/>
+      <c r="E58" s="21"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -7376,111 +9208,149 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="21" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F62" s="20" t="s">
         <v>21</v>
       </c>
+      <c r="G62" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>10</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="9">
         <v>0.99999990507450098</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="9">
         <v>9.0054235389743999E-8</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="28">
         <v>5.4687739999999998</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="9">
         <f t="shared" ref="E63:E66" si="7">B63/B$5-1</f>
         <v>2.6416066377851877E-2</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="10">
         <v>1.3788447930534999</v>
       </c>
+      <c r="G63">
+        <f>Table24[[#This Row],[N]]/Table24[[#This Row],[time /s]]</f>
+        <v>1.8285634037903193</v>
+      </c>
+      <c r="H63">
+        <f>Table24[[#This Row],[time /s]]/3600</f>
+        <v>1.5191038888888889E-3</v>
+      </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
         <v>20</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="11">
         <v>0.99759326286470595</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="11">
         <v>2.3457292431222801E-3</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="29">
         <v>11.343603</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="11">
         <f t="shared" si="7"/>
         <v>2.3945849913208583E-2</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F64" s="12">
         <v>1.38270283314251</v>
       </c>
+      <c r="G64">
+        <f>Table24[[#This Row],[N]]/Table24[[#This Row],[time /s]]</f>
+        <v>1.7631082470005341</v>
+      </c>
+      <c r="H64">
+        <f>Table24[[#This Row],[time /s]]/3600</f>
+        <v>3.1510008333333335E-3</v>
+      </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>50</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="9">
         <v>0.98596855589367005</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="9">
         <v>8.8425708328747996E-3</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="28">
         <v>28.603586</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="9">
         <f t="shared" si="7"/>
         <v>1.2014062778571866E-2</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="10">
         <v>0.85410197157480905</v>
       </c>
+      <c r="G65">
+        <f>Table24[[#This Row],[N]]/Table24[[#This Row],[time /s]]</f>
+        <v>1.7480325718600458</v>
+      </c>
+      <c r="H65">
+        <f>Table24[[#This Row],[time /s]]/3600</f>
+        <v>7.9454405555555562E-3</v>
+      </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
         <v>100</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="11">
         <v>0.98030188273837304</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="11">
         <v>9.45806051909002E-3</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="29">
         <v>55.921340999999998</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="11">
         <f t="shared" si="7"/>
         <v>6.1976978569415753E-3</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="12">
         <v>0.98030188273837304</v>
       </c>
+      <c r="G66">
+        <f>Table24[[#This Row],[N]]/Table24[[#This Row],[time /s]]</f>
+        <v>1.7882260727617387</v>
+      </c>
+      <c r="H66">
+        <f>Table24[[#This Row],[time /s]]/3600</f>
+        <v>1.5533705833333333E-2</v>
+      </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1000</v>
       </c>
@@ -7490,7 +9360,7 @@
       <c r="C67" s="1">
         <v>4.4345580902809198E-3</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="15">
         <v>556.997705</v>
       </c>
       <c r="E67" s="1">
@@ -7500,8 +9370,16 @@
       <c r="F67">
         <v>1.05572808970182</v>
       </c>
+      <c r="G67">
+        <f>Table24[[#This Row],[N]]/Table24[[#This Row],[time /s]]</f>
+        <v>1.7953395337598383</v>
+      </c>
+      <c r="H67">
+        <f>Table24[[#This Row],[time /s]]/3600</f>
+        <v>0.15472158472222222</v>
+      </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2000</v>
       </c>
@@ -7511,18 +9389,26 @@
       <c r="C68" s="1">
         <v>2.96694676070435E-3</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="15">
         <v>1113.903869</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="21">
         <f>B68/B$5-1</f>
         <v>2.1163970037640922E-4</v>
       </c>
       <c r="F68">
         <v>1.0143478195065401</v>
       </c>
+      <c r="G68">
+        <f>Table24[[#This Row],[N]]/Table24[[#This Row],[time /s]]</f>
+        <v>1.795487075375263</v>
+      </c>
+      <c r="H68">
+        <f>Table24[[#This Row],[time /s]]/3600</f>
+        <v>0.30941774138888889</v>
+      </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3000</v>
       </c>
@@ -7532,18 +9418,26 @@
       <c r="C69" s="1">
         <v>2.7363097635930401E-3</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="15">
         <v>1702.973512</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="21">
         <f>B69/B$5-1</f>
         <v>-5.709510962779718E-3</v>
       </c>
       <c r="F69">
         <v>1.0212862361646</v>
       </c>
+      <c r="G69">
+        <f>Table24[[#This Row],[N]]/Table24[[#This Row],[time /s]]</f>
+        <v>1.7616245812753428</v>
+      </c>
+      <c r="H69">
+        <f>Table24[[#This Row],[time /s]]/3600</f>
+        <v>0.47304819777777779</v>
+      </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>5000</v>
       </c>
@@ -7553,18 +9447,26 @@
       <c r="C70" s="1">
         <v>1.90274375636109E-3</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="15">
         <v>2867.006691</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="21">
         <f>B70/B$5-1</f>
         <v>-4.9911984637518447E-4</v>
       </c>
       <c r="F70">
         <v>1.0789649162858199</v>
       </c>
+      <c r="G70">
+        <f>Table24[[#This Row],[N]]/Table24[[#This Row],[time /s]]</f>
+        <v>1.7439791876648953</v>
+      </c>
+      <c r="H70">
+        <f>Table24[[#This Row],[time /s]]/3600</f>
+        <v>0.79639074750000005</v>
+      </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>10000</v>
       </c>
@@ -7574,23 +9476,31 @@
       <c r="C71" s="1">
         <v>1.3638326289617201E-3</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="15">
         <v>5732.1051889999999</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="21">
         <f>B71/B$5-1</f>
         <v>-1.2855328266178079E-3</v>
       </c>
       <c r="F71">
         <v>1.0902360504508699</v>
       </c>
+      <c r="G71">
+        <f>Table24[[#This Row],[N]]/Table24[[#This Row],[time /s]]</f>
+        <v>1.7445597507858295</v>
+      </c>
+      <c r="H71">
+        <f>Table24[[#This Row],[time /s]]/3600</f>
+        <v>1.5922514413888889</v>
+      </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -7609,71 +9519,101 @@
       <c r="F75" t="s">
         <v>38</v>
       </c>
+      <c r="G75" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>31</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>0.97281689239879499</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>1.3830518357971101E-3</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="15">
         <v>5782.0920059999999</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="9">
         <f t="shared" ref="E76" si="8">B76/B$5-1</f>
         <v>-1.4850172135699724E-3</v>
       </c>
       <c r="F76">
         <v>0.99187915307742403</v>
       </c>
+      <c r="G76">
+        <f>10000/Table5[[#This Row],[time /s]]</f>
+        <v>1.7294778411729066</v>
+      </c>
+      <c r="H76">
+        <f>Table5[[#This Row],[time /s]]/3600</f>
+        <v>1.6061366683333334</v>
+      </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>40</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>0.96850391024865701</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>1.49731199923891E-3</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="15">
         <v>5012.1046740000002</v>
       </c>
-      <c r="E77" s="23">
+      <c r="E77" s="21">
         <f t="shared" ref="E77:E78" si="9">B77/B$5-1</f>
         <v>-5.9119318066995774E-3</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
+      <c r="G77">
+        <f>10000/Table5[[#This Row],[time /s]]</f>
+        <v>1.9951698239413105</v>
+      </c>
+      <c r="H77">
+        <f>Table5[[#This Row],[time /s]]/3600</f>
+        <v>1.3922512983333333</v>
+      </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="25">
         <v>0.97255643046974405</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="25">
         <v>1.38806657060112E-3</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="27">
         <v>3161.9371609999998</v>
       </c>
-      <c r="E78" s="24">
+      <c r="E78" s="22">
         <f t="shared" si="9"/>
         <v>-1.7523595476052201E-3</v>
       </c>
       <c r="F78" s="5">
         <v>1.0981310341470401</v>
       </c>
+      <c r="G78">
+        <f>10000/Table5[[#This Row],[time /s]]</f>
+        <v>3.162618196004054</v>
+      </c>
+      <c r="H78">
+        <f>Table5[[#This Row],[time /s]]/3600</f>
+        <v>0.87831587805555555</v>
+      </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -7687,13 +9627,32 @@
         <v>30</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
-      </c>
-      <c r="H82" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="H82" s="26">
+        <f>AVERAGE(H86:H96)</f>
+        <v>3.5297902205180307</v>
+      </c>
+      <c r="I82" t="s">
+        <v>49</v>
+      </c>
+      <c r="K82" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83">
+        <v>20</v>
+      </c>
+      <c r="H83" s="26">
+        <f>_xlfn.STDEV.S(H86:H96)</f>
+        <v>7.1019712816277225E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -7707,343 +9666,1359 @@
         <v>12</v>
       </c>
       <c r="E85" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" t="s">
         <v>8</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>44</v>
       </c>
       <c r="H85" t="s">
         <v>45</v>
       </c>
+      <c r="I85" t="s">
+        <v>43</v>
+      </c>
+      <c r="J85" t="s">
+        <v>50</v>
+      </c>
+      <c r="K85" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>10</v>
       </c>
       <c r="B86" s="1">
-        <v>0.99999216835217397</v>
+        <v>1</v>
       </c>
       <c r="C86" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D86" s="15">
+        <v>57.320431999999997</v>
+      </c>
+      <c r="E86">
+        <v>20</v>
+      </c>
+      <c r="F86" s="9">
+        <f t="shared" ref="F86:F97" si="10">B86/B$5-1</f>
+        <v>2.6416163810918381E-2</v>
+      </c>
+      <c r="G86">
+        <v>1.6261646097200499</v>
+      </c>
+      <c r="H86">
+        <f>Table4[[#This Row],[N]]*Table4[[#This Row],[interation]]/Table4[[#This Row],[time /s]]</f>
+        <v>3.4891572345442201</v>
+      </c>
+      <c r="I86">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>1.5922342222222222E-2</v>
+      </c>
+      <c r="J86" s="31">
+        <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
+        <v>264.1616381091838</v>
+      </c>
+      <c r="K86" s="14">
+        <f t="shared" ref="K86:K95" si="11">B$5</f>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L86">
         <v>1.00265302811656E-4</v>
       </c>
-      <c r="E86" s="11">
-        <f t="shared" ref="E86:E94" si="10">B86/B$5-1</f>
-        <v>2.640812528100045E-2</v>
-      </c>
-      <c r="F86">
-        <v>0.99187915307742403</v>
-      </c>
-      <c r="G86">
-        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <f>Table4[[#This Row],[time /s]]/3600</f>
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0.99999216835217397</v>
-      </c>
-      <c r="J86">
-        <v>1.00265302811656E-4</v>
-      </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>20</v>
       </c>
       <c r="B87" s="1">
-        <v>0.96730643021373397</v>
+        <v>0.99999902534551099</v>
       </c>
       <c r="C87" s="1">
+        <v>1.00004023012459E-4</v>
+      </c>
+      <c r="D87" s="15">
+        <v>112.054773</v>
+      </c>
+      <c r="E87">
+        <v>20</v>
+      </c>
+      <c r="F87" s="21">
+        <f t="shared" si="10"/>
+        <v>2.641516340979666E-2</v>
+      </c>
+      <c r="G87">
+        <v>1.63932022718894</v>
+      </c>
+      <c r="H87">
+        <f>Table4[[#This Row],[N]]*Table4[[#This Row],[interation]]/Table4[[#This Row],[time /s]]</f>
+        <v>3.5696828371603591</v>
+      </c>
+      <c r="I87">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>3.1126325833333333E-2</v>
+      </c>
+      <c r="J87" s="31">
+        <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
+        <v>264.14100767231861</v>
+      </c>
+      <c r="K87" s="14">
+        <f t="shared" si="11"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L87">
         <v>2.0395525828444099E-2</v>
       </c>
-      <c r="E87" s="23">
-        <f t="shared" si="10"/>
-        <v>-7.1410446703854547E-3</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <f>Table4[[#This Row],[time /s]]/3600</f>
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0.96730643021373397</v>
-      </c>
-      <c r="J87">
-        <v>2.0395525828444099E-2</v>
-      </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>50</v>
       </c>
       <c r="B88" s="1">
-        <v>0.97585229746394497</v>
+        <v>0.98409092774370999</v>
       </c>
       <c r="C88" s="1">
+        <v>1.57450069007182E-2</v>
+      </c>
+      <c r="D88" s="15">
+        <v>297.86422499999998</v>
+      </c>
+      <c r="E88" s="15">
+        <v>20</v>
+      </c>
+      <c r="F88" s="21">
+        <f t="shared" si="10"/>
+        <v>1.0086834895826513E-2</v>
+      </c>
+      <c r="G88">
+        <v>2.7631988969183201</v>
+      </c>
+      <c r="H88">
+        <f>Table4[[#This Row],[N]]*Table4[[#This Row],[interation]]/Table4[[#This Row],[time /s]]</f>
+        <v>3.3572343237929969</v>
+      </c>
+      <c r="I88">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>8.2740062499999989E-2</v>
+      </c>
+      <c r="J88" s="31">
+        <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
+        <v>0.64063705779426539</v>
+      </c>
+      <c r="K88" s="14">
+        <f t="shared" si="11"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L88">
         <v>1.9879563526973999E-2</v>
       </c>
-      <c r="D88">
-        <v>288.95583800000003</v>
-      </c>
-      <c r="E88" s="24">
-        <f t="shared" si="10"/>
-        <v>1.6305716090134759E-3</v>
-      </c>
-      <c r="F88" s="5">
-        <v>0.83436854000504701</v>
-      </c>
-      <c r="G88">
-        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
-        <v>5.7791167600000009</v>
-      </c>
-      <c r="H88">
-        <f>Table4[[#This Row],[time /s]]/3600</f>
-        <v>8.0265510555555558E-2</v>
-      </c>
-      <c r="I88">
-        <v>0.97585229746394497</v>
-      </c>
-      <c r="J88">
-        <v>1.9879563526973999E-2</v>
-      </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>100</v>
       </c>
       <c r="B89" s="1">
-        <v>0.97232382002585904</v>
+        <v>0.99842885364966105</v>
       </c>
       <c r="C89" s="1">
+        <v>1.4501795719273E-3</v>
+      </c>
+      <c r="D89" s="15">
+        <v>577.406834</v>
+      </c>
+      <c r="E89" s="15">
+        <v>20</v>
+      </c>
+      <c r="F89" s="23">
+        <f t="shared" si="10"/>
+        <v>2.4803513801217925E-2</v>
+      </c>
+      <c r="G89">
+        <v>2.85410197864709</v>
+      </c>
+      <c r="H89">
+        <f>Table4[[#This Row],[N]]*Table4[[#This Row],[interation]]/Table4[[#This Row],[time /s]]</f>
+        <v>3.4637622595232394</v>
+      </c>
+      <c r="I89">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>0.16039078722222222</v>
+      </c>
+      <c r="J89" s="31">
+        <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
+        <v>17.103753411899092</v>
+      </c>
+      <c r="K89" s="14">
+        <f t="shared" si="11"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L89">
         <v>1.14097567092479E-2</v>
       </c>
-      <c r="E89" s="25">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>200</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.96602421826473395</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1.12280905510878E-2</v>
+      </c>
+      <c r="D90" s="15">
+        <v>1108.32042</v>
+      </c>
+      <c r="E90" s="15">
+        <v>20</v>
+      </c>
+      <c r="F90" s="21">
+        <f>B90/B$5-1</f>
+        <v>-8.4571277402705203E-3</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <f>Table4[[#This Row],[N]]*Table4[[#This Row],[interation]]/Table4[[#This Row],[time /s]]</f>
+        <v>3.6090646060640115</v>
+      </c>
+      <c r="I90">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>0.30786678333333334</v>
+      </c>
+      <c r="J90" s="30">
+        <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
+        <v>0.75321157251008963</v>
+      </c>
+      <c r="K90" s="14">
+        <f t="shared" si="11"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L90">
+        <v>3.7538272730722301E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>500</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.97734125761243695</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5.3492086640359897E-3</v>
+      </c>
+      <c r="D91" s="15">
+        <v>2808.4864750000002</v>
+      </c>
+      <c r="E91" s="15">
+        <v>20</v>
+      </c>
+      <c r="F91" s="21">
+        <f>B91/B$5-1</f>
+        <v>3.1588643726960797E-3</v>
+      </c>
+      <c r="G91">
+        <v>0.94444498081293604</v>
+      </c>
+      <c r="H91">
+        <f>Table4[[#This Row],[N]]*Table4[[#This Row],[interation]]/Table4[[#This Row],[time /s]]</f>
+        <v>3.5606366948945336</v>
+      </c>
+      <c r="I91">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>0.7801351319444445</v>
+      </c>
+      <c r="J91" s="30">
+        <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
+        <v>0.59052928593604526</v>
+      </c>
+      <c r="K91" s="14">
+        <f t="shared" si="11"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L91">
+        <v>3.13060226043556E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>800</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.96776028977950501</v>
+      </c>
+      <c r="C92" s="1">
+        <v>4.9156807982157803E-3</v>
+      </c>
+      <c r="D92" s="15">
+        <v>4476.9731840000004</v>
+      </c>
+      <c r="E92" s="15">
+        <v>20</v>
+      </c>
+      <c r="F92" s="21">
+        <f>B92/B$5-1</f>
+        <v>-6.6751958759777574E-3</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <f>Table4[[#This Row],[N]]*Table4[[#This Row],[interation]]/Table4[[#This Row],[time /s]]</f>
+        <v>3.5738431619786084</v>
+      </c>
+      <c r="I92">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>1.2436036622222224</v>
+      </c>
+      <c r="J92" s="30">
+        <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
+        <v>1.3579392458518909</v>
+      </c>
+      <c r="K92" s="14">
+        <f t="shared" si="11"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L92">
+        <v>2.57491114706141E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1000</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.97574966077707004</v>
+      </c>
+      <c r="C93" s="1">
+        <v>4.13928230830747E-3</v>
+      </c>
+      <c r="D93" s="15">
+        <v>5620.5697950000003</v>
+      </c>
+      <c r="E93" s="15">
+        <v>20</v>
+      </c>
+      <c r="F93" s="23">
         <f t="shared" si="10"/>
-        <v>-1.9911146670800184E-3</v>
-      </c>
-      <c r="G89">
-        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
+        <v>1.5252236546050568E-3</v>
+      </c>
+      <c r="G93">
+        <v>1.1457249631767901</v>
+      </c>
+      <c r="H93">
+        <f>Table4[[#This Row],[N]]*Table4[[#This Row],[interation]]/Table4[[#This Row],[time /s]]</f>
+        <v>3.5583580899203118</v>
+      </c>
+      <c r="I93">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>1.5612693875000001</v>
+      </c>
+      <c r="J93" s="30">
+        <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
+        <v>0.36847538800239804</v>
+      </c>
+      <c r="K93" s="14">
+        <f t="shared" si="11"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L93">
+        <v>1.76687281059551E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2000</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.97619165598090696</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2.83597127328472E-3</v>
+      </c>
+      <c r="D94" s="15">
+        <v>11225.037076000001</v>
+      </c>
+      <c r="E94" s="15">
+        <v>20</v>
+      </c>
+      <c r="F94" s="23">
+        <f t="shared" si="10"/>
+        <v>1.9788946761503112E-3</v>
+      </c>
+      <c r="G94">
+        <v>1.29416855010804</v>
+      </c>
+      <c r="H94">
+        <f>Table4[[#This Row],[N]]*Table4[[#This Row],[interation]]/Table4[[#This Row],[time /s]]</f>
+        <v>3.5634626174663691</v>
+      </c>
+      <c r="I94">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>3.1180658544444446</v>
+      </c>
+      <c r="J94" s="30">
+        <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
+        <v>0.69778375218106037</v>
+      </c>
+      <c r="K94" s="14">
+        <f t="shared" si="11"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L94">
+        <v>1.30808488959374E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>3000</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.97279644924364905</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2.5502114442741801E-3</v>
+      </c>
+      <c r="D95" s="15">
+        <v>16806.002012000001</v>
+      </c>
+      <c r="E95" s="15">
+        <v>20</v>
+      </c>
+      <c r="F95" s="23">
+        <f>B95/B$5-1</f>
+        <v>-1.5060003984510573E-3</v>
+      </c>
+      <c r="G95">
+        <v>1.09784745834081</v>
+      </c>
+      <c r="H95">
+        <f>Table4[[#This Row],[N]]*Table4[[#This Row],[interation]]/Table4[[#This Row],[time /s]]</f>
+        <v>3.5701530891855278</v>
+      </c>
+      <c r="I95">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>4.6683338922222228</v>
+      </c>
+      <c r="J95" s="30">
+        <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
+        <v>0.59053942442003371</v>
+      </c>
+      <c r="K95" s="14">
+        <f t="shared" si="11"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L95">
+        <v>6.0922820321060401E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>5000</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.97080700472807402</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2.0296784458947201E-3</v>
+      </c>
+      <c r="D96" s="15">
+        <v>28471.067965999999</v>
+      </c>
+      <c r="E96" s="15">
+        <v>20</v>
+      </c>
+      <c r="F96" s="23">
+        <f t="shared" si="10"/>
+        <v>-3.5479984062422032E-3</v>
+      </c>
+      <c r="G96">
+        <v>1.0901699434910901</v>
+      </c>
+      <c r="H96">
+        <f>Table4[[#This Row],[N]]*Table4[[#This Row],[interation]]/Table4[[#This Row],[time /s]]</f>
+        <v>3.5123375111681612</v>
+      </c>
+      <c r="I96">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>7.9086299905555553</v>
+      </c>
+      <c r="J96" s="30">
+        <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
+        <v>1.7480593605447583</v>
+      </c>
+      <c r="K96" s="14">
+        <f t="shared" ref="K96:K98" si="12">B$5</f>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L96">
+        <v>1.00060922820321</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>10000</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.97283924872993899</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1.3675480918551499E-3</v>
+      </c>
+      <c r="D97" s="15">
+        <v>56222.440164</v>
+      </c>
+      <c r="E97" s="15">
+        <v>17</v>
+      </c>
+      <c r="F97" s="23">
+        <f t="shared" si="10"/>
+        <v>-1.4620703139202051E-3</v>
+      </c>
+      <c r="G97">
+        <v>1.0468643338310299</v>
+      </c>
+      <c r="H97">
+        <f>Table4[[#This Row],[N]]*Table4[[#This Row],[interation]]/Table4[[#This Row],[time /s]]</f>
+        <v>3.0237036938295918</v>
+      </c>
+      <c r="I97">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>15.617344490000001</v>
+      </c>
+      <c r="J97" s="30">
+        <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
+        <v>1.0691180241689571</v>
+      </c>
+      <c r="K97" s="14">
+        <f t="shared" si="12"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L97">
+        <v>2.00060922820321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>20000</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.97442273869045803</v>
+      </c>
+      <c r="C98" s="1">
+        <v>9.5970702563293899E-4</v>
+      </c>
+      <c r="D98" s="15">
+        <v>111933.442089</v>
+      </c>
+      <c r="E98" s="15">
+        <v>20</v>
+      </c>
+      <c r="F98" s="21">
+        <f>B98/B$5-1</f>
+        <v>1.6324937678890983E-4</v>
+      </c>
+      <c r="G98">
+        <v>1.1246117971245799</v>
+      </c>
+      <c r="H98">
+        <f>Table4[[#This Row],[N]]*Table4[[#This Row],[interation]]/Table4[[#This Row],[time /s]]</f>
+        <v>3.5735522158065489</v>
+      </c>
+      <c r="I98">
+        <f>Table4[[#This Row],[time /s]]/3600</f>
+        <v>31.092622802499999</v>
+      </c>
+      <c r="J98" s="30">
+        <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
+        <v>0.17010334657209036</v>
+      </c>
+      <c r="K98" s="14">
+        <f t="shared" si="12"/>
+        <v>0.9742636907501151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="24"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="14"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" t="s">
+        <v>33</v>
+      </c>
+      <c r="H104" s="26">
+        <f>AVERAGE(K108:K118)</f>
+        <v>1.1344408765306446</v>
+      </c>
+      <c r="I104" t="s">
+        <v>49</v>
+      </c>
+      <c r="K104" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E105" t="s">
+        <v>47</v>
+      </c>
+      <c r="F105">
+        <v>20</v>
+      </c>
+      <c r="H105" s="26">
+        <f>_xlfn.STDEV.S(K108:K118)</f>
+        <v>4.6098267241727206E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
+        <v>48</v>
+      </c>
+      <c r="F107" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>21</v>
+      </c>
+      <c r="H107" t="s">
+        <v>22</v>
+      </c>
+      <c r="I107" t="s">
+        <v>23</v>
+      </c>
+      <c r="J107" t="s">
+        <v>24</v>
+      </c>
+      <c r="K107" t="s">
+        <v>45</v>
+      </c>
+      <c r="L107" t="s">
+        <v>43</v>
+      </c>
+      <c r="M107" t="s">
+        <v>50</v>
+      </c>
+      <c r="N107" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>10</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0.89999999999991798</v>
+      </c>
+      <c r="C108" s="1">
+        <v>9.4868382509655805E-2</v>
+      </c>
+      <c r="D108" s="15">
+        <v>176.09594300000001</v>
+      </c>
+      <c r="E108">
+        <v>20</v>
+      </c>
+      <c r="F108" s="9">
+        <f t="shared" ref="F108:F121" si="13">B108/B$5-1</f>
+        <v>-7.6225452570257701E-2</v>
+      </c>
+      <c r="G108">
+        <v>2.66911798409155</v>
+      </c>
+      <c r="H108">
+        <v>2.6655462700000001</v>
+      </c>
+      <c r="I108">
+        <v>2.66699157</v>
+      </c>
+      <c r="J108">
+        <v>2.6748161100000001</v>
+      </c>
+      <c r="K108">
+        <f>Table47[[#This Row],[N]]*Table47[[#This Row],[interation]]/Table47[[#This Row],[time /s]]</f>
+        <v>1.1357445071860628</v>
+      </c>
+      <c r="L108">
+        <f>Table47[[#This Row],[time /s]]/3600</f>
+        <v>4.891553972222222E-2</v>
+      </c>
+      <c r="M108" s="31">
+        <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
+        <v>0.80348637294937952</v>
+      </c>
+      <c r="N108" s="14">
+        <f t="shared" ref="N108:N120" si="14">B$5</f>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O108">
+        <v>1.00265302811656E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>20</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0.99997976694522905</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1.00916893667015E-4</v>
+      </c>
+      <c r="D109" s="15">
+        <v>348.601651</v>
+      </c>
+      <c r="E109">
+        <v>20</v>
+      </c>
+      <c r="F109" s="21">
+        <f t="shared" si="13"/>
+        <v>2.6395396276458039E-2</v>
+      </c>
+      <c r="G109">
+        <v>3.9926993925645999</v>
+      </c>
+      <c r="H109">
+        <v>3.8667701000000001</v>
+      </c>
+      <c r="I109">
+        <v>3.8889929099999998</v>
+      </c>
+      <c r="J109">
+        <v>4.2223351600000001</v>
+      </c>
+      <c r="K109">
+        <f>Table47[[#This Row],[N]]*Table47[[#This Row],[interation]]/Table47[[#This Row],[time /s]]</f>
+        <v>1.147441496196471</v>
+      </c>
+      <c r="L109">
+        <f>Table47[[#This Row],[time /s]]/3600</f>
+        <v>9.6833791944444442E-2</v>
+      </c>
+      <c r="M109" s="31">
+        <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
+        <v>261.5557744330913</v>
+      </c>
+      <c r="N109" s="14">
+        <f t="shared" si="14"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O109">
+        <v>2.0395525828444099E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>50</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0.999834230140207</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1.5228336935008699E-4</v>
+      </c>
+      <c r="D110" s="15">
+        <v>927.60307699999998</v>
+      </c>
+      <c r="E110" s="15">
+        <v>20</v>
+      </c>
+      <c r="F110" s="21">
+        <f t="shared" si="13"/>
+        <v>2.6246014947354013E-2</v>
+      </c>
+      <c r="G110">
+        <v>2.72469102398248</v>
+      </c>
+      <c r="H110">
+        <v>2.7895240000000001</v>
+      </c>
+      <c r="I110">
+        <v>2.61038025</v>
+      </c>
+      <c r="J110">
+        <v>2.7741688199999999</v>
+      </c>
+      <c r="K110">
+        <f>Table47[[#This Row],[N]]*Table47[[#This Row],[interation]]/Table47[[#This Row],[time /s]]</f>
+        <v>1.0780473079435462</v>
+      </c>
+      <c r="L110">
+        <f>Table47[[#This Row],[time /s]]/3600</f>
+        <v>0.25766752138888888</v>
+      </c>
+      <c r="M110" s="31">
+        <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
+        <v>172.34984397420689</v>
+      </c>
+      <c r="N110" s="14">
+        <f t="shared" si="14"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O110">
+        <v>1.9879563526973999E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>100</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.97042322392989699</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1.46588795948069E-2</v>
+      </c>
+      <c r="D111" s="15">
+        <v>1831.974514</v>
+      </c>
+      <c r="E111" s="15">
+        <v>20</v>
+      </c>
+      <c r="F111" s="23">
+        <f t="shared" si="13"/>
+        <v>-3.9419172208513542E-3</v>
+      </c>
+      <c r="G111">
+        <v>0.92499389026511303</v>
+      </c>
+      <c r="H111">
+        <v>0.93257581000000001</v>
+      </c>
+      <c r="I111">
+        <v>0.90983006</v>
+      </c>
+      <c r="J111">
+        <v>0.93257581000000001</v>
+      </c>
+      <c r="K111">
+        <f>Table47[[#This Row],[N]]*Table47[[#This Row],[interation]]/Table47[[#This Row],[time /s]]</f>
+        <v>1.0917182442855753</v>
+      </c>
+      <c r="L111">
+        <f>Table47[[#This Row],[time /s]]/3600</f>
+        <v>0.5088818094444445</v>
+      </c>
+      <c r="M111" s="33">
+        <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
+        <v>0.26890985735689038</v>
+      </c>
+      <c r="N111" s="14">
+        <f t="shared" si="14"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O111">
+        <v>1.14097567092479E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>200</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0.974034364549624</v>
+      </c>
+      <c r="C112" s="1">
+        <v>9.7130100995358407E-3</v>
+      </c>
+      <c r="D112" s="15">
+        <v>3671.1841829999998</v>
+      </c>
+      <c r="E112" s="15">
+        <v>20</v>
+      </c>
+      <c r="F112" s="21">
+        <f t="shared" si="13"/>
+        <v>-2.3538411896939504E-4</v>
+      </c>
+      <c r="G112">
+        <v>1.6095438314436099</v>
+      </c>
+      <c r="H112">
+        <v>1.6216775800000001</v>
+      </c>
+      <c r="I112">
+        <v>1.59140774</v>
+      </c>
+      <c r="J112">
+        <v>1.61554617</v>
+      </c>
+      <c r="K112">
+        <f>Table47[[#This Row],[N]]*Table47[[#This Row],[interation]]/Table47[[#This Row],[time /s]]</f>
+        <v>1.0895666903672754</v>
+      </c>
+      <c r="L112">
+        <f>Table47[[#This Row],[time /s]]/3600</f>
+        <v>1.0197733841666665</v>
+      </c>
+      <c r="M112" s="33">
+        <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
+        <v>2.4233900362220711E-2</v>
+      </c>
+      <c r="N112" s="14">
+        <f t="shared" si="14"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O112">
+        <v>3.7538272730722301E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>500</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0.97095748797454795</v>
+      </c>
+      <c r="C113" s="1">
+        <v>6.5270799099533296E-3</v>
+      </c>
+      <c r="D113" s="15">
+        <v>9038.7205520000007</v>
+      </c>
+      <c r="E113" s="15">
+        <v>20</v>
+      </c>
+      <c r="F113" s="21">
+        <f t="shared" si="13"/>
+        <v>-3.3935399696786162E-3</v>
+      </c>
+      <c r="G113">
+        <v>1.21163967509254</v>
+      </c>
+      <c r="H113">
+        <v>1.2316667800000001</v>
+      </c>
+      <c r="I113">
+        <v>1.20162612</v>
+      </c>
+      <c r="J113">
+        <v>1.20162612</v>
+      </c>
+      <c r="K113">
+        <f>Table47[[#This Row],[N]]*Table47[[#This Row],[interation]]/Table47[[#This Row],[time /s]]</f>
+        <v>1.1063512742173778</v>
+      </c>
+      <c r="L113">
+        <f>Table47[[#This Row],[time /s]]/3600</f>
+        <v>2.510755708888889</v>
+      </c>
+      <c r="M113" s="33">
+        <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
+        <v>0.51991702514683646</v>
+      </c>
+      <c r="N113" s="14">
+        <f t="shared" si="14"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O113">
+        <v>3.13060226043556E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>800</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0.97471052388777801</v>
+      </c>
+      <c r="C114" s="1">
+        <v>4.6328836590388001E-3</v>
+      </c>
+      <c r="D114" s="15">
+        <v>14403.683476</v>
+      </c>
+      <c r="E114" s="15">
+        <v>20</v>
+      </c>
+      <c r="F114" s="21">
+        <f t="shared" si="13"/>
+        <v>4.5863675502366696E-4</v>
+      </c>
+      <c r="G114">
+        <v>1.1983810712888701</v>
+      </c>
+      <c r="H114">
+        <v>1.18786013</v>
+      </c>
+      <c r="I114">
+        <v>1.20740827</v>
+      </c>
+      <c r="J114">
+        <v>1.19987482</v>
+      </c>
+      <c r="K114">
+        <f>Table47[[#This Row],[N]]*Table47[[#This Row],[interation]]/Table47[[#This Row],[time /s]]</f>
+        <v>1.1108269649676659</v>
+      </c>
+      <c r="L114">
+        <f>Table47[[#This Row],[time /s]]/3600</f>
+        <v>4.0010231877777782</v>
+      </c>
+      <c r="M114" s="33">
+        <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
+        <v>9.8995957761396039E-2</v>
+      </c>
+      <c r="N114" s="14">
+        <f t="shared" si="14"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O114">
+        <v>2.57491114706141E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>1000</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0.976520694196089</v>
+      </c>
+      <c r="C115" s="1">
+        <v>4.00211494721081E-3</v>
+      </c>
+      <c r="D115" s="15">
+        <v>16559.163094</v>
+      </c>
+      <c r="E115" s="15">
+        <v>20</v>
+      </c>
+      <c r="F115" s="23">
+        <f t="shared" si="13"/>
+        <v>2.316624818724522E-3</v>
+      </c>
+      <c r="G115">
+        <v>1.00735465515953</v>
+      </c>
+      <c r="H115">
+        <v>0.99043183999999995</v>
+      </c>
+      <c r="I115">
+        <v>1.0422059100000001</v>
+      </c>
+      <c r="J115">
+        <v>0.98942620999999997</v>
+      </c>
+      <c r="K115">
+        <f>Table47[[#This Row],[N]]*Table47[[#This Row],[interation]]/Table47[[#This Row],[time /s]]</f>
+        <v>1.2077905076764865</v>
+      </c>
+      <c r="L115">
+        <f>Table47[[#This Row],[time /s]]/3600</f>
+        <v>4.5997675261111111</v>
+      </c>
+      <c r="M115" s="33">
+        <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
+        <v>0.5788501453060575</v>
+      </c>
+      <c r="N115" s="14">
+        <f t="shared" si="14"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O115">
+        <v>1.76687281059551E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2000</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0.97260897655259304</v>
+      </c>
+      <c r="C116" s="1">
+        <v>3.1379606387295601E-3</v>
+      </c>
+      <c r="D116" s="15">
+        <v>35556.100186000003</v>
+      </c>
+      <c r="E116" s="15">
+        <v>20</v>
+      </c>
+      <c r="F116" s="23">
+        <f t="shared" si="13"/>
+        <v>-1.6984253988240328E-3</v>
+      </c>
+      <c r="G116">
+        <v>1.0180555555555499</v>
+      </c>
+      <c r="H116">
+        <v>1.0069444400000001</v>
+      </c>
+      <c r="I116">
+        <v>1.04027778</v>
+      </c>
+      <c r="J116">
+        <v>1.0069444400000001</v>
+      </c>
+      <c r="K116">
+        <f>Table47[[#This Row],[N]]*Table47[[#This Row],[interation]]/Table47[[#This Row],[time /s]]</f>
+        <v>1.1249827678163016</v>
+      </c>
+      <c r="L116">
+        <f>Table47[[#This Row],[time /s]]/3600</f>
+        <v>9.8766944961111118</v>
+      </c>
+      <c r="M116" s="33">
+        <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
+        <v>0.54125133944052917</v>
+      </c>
+      <c r="N116" s="14">
+        <f t="shared" si="14"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O116">
+        <v>1.30808488959374E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>3000</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0.96885786348300795</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2.66382368565496E-3</v>
+      </c>
+      <c r="D117" s="15">
+        <v>50842.137107000002</v>
+      </c>
+      <c r="E117" s="15">
+        <v>20</v>
+      </c>
+      <c r="F117" s="23">
+        <f t="shared" si="13"/>
+        <v>-5.5486284857285684E-3</v>
+      </c>
+      <c r="G117">
+        <v>0.96682849921400005</v>
+      </c>
+      <c r="H117">
+        <v>0.96510669000000004</v>
+      </c>
+      <c r="I117">
+        <v>0.97541856000000005</v>
+      </c>
+      <c r="J117">
+        <v>0.95996024999999996</v>
+      </c>
+      <c r="K117">
+        <f>Table47[[#This Row],[N]]*Table47[[#This Row],[interation]]/Table47[[#This Row],[time /s]]</f>
+        <v>1.1801234844579169</v>
+      </c>
+      <c r="L117">
+        <f>Table47[[#This Row],[time /s]]/3600</f>
+        <v>14.122815863055557</v>
+      </c>
+      <c r="M117" s="35">
+        <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
+        <v>2.0829563591647076</v>
+      </c>
+      <c r="N117" s="14">
+        <f t="shared" si="14"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O117">
+        <v>6.0922820321060401E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>5000</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0.97283304995231501</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1.9672322652768801E-3</v>
+      </c>
+      <c r="D118" s="15">
+        <v>82901.114780999997</v>
+      </c>
+      <c r="E118" s="15">
+        <v>20</v>
+      </c>
+      <c r="F118" s="23">
+        <f t="shared" si="13"/>
+        <v>-1.4684328394694024E-3</v>
+      </c>
+      <c r="G118">
+        <v>1.1056124408624299</v>
+      </c>
+      <c r="H118">
+        <v>1.11386791</v>
+      </c>
+      <c r="I118">
+        <v>1.12156273</v>
+      </c>
+      <c r="J118">
+        <v>1.08140668</v>
+      </c>
+      <c r="K118">
+        <f>Table47[[#This Row],[N]]*Table47[[#This Row],[interation]]/Table47[[#This Row],[time /s]]</f>
+        <v>1.2062563967224103</v>
+      </c>
+      <c r="L118">
+        <f>Table47[[#This Row],[time /s]]/3600</f>
+        <v>23.028087439166665</v>
+      </c>
+      <c r="M118" s="33">
+        <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
+        <v>0.74644609352354552</v>
+      </c>
+      <c r="N118" s="14">
+        <f t="shared" si="14"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O118">
+        <v>1.00060922820321</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>10000</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0.97291042044462706</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1.35211337422687E-3</v>
+      </c>
+      <c r="D119" s="15">
+        <v>172397.84753200001</v>
+      </c>
+      <c r="E119" s="15">
+        <v>20</v>
+      </c>
+      <c r="F119" s="9">
+        <f t="shared" si="13"/>
+        <v>-1.3890185155582824E-3</v>
+      </c>
+      <c r="G119">
+        <v>1.0707615407533899</v>
+      </c>
+      <c r="H119">
+        <v>1.0633587</v>
+      </c>
+      <c r="I119">
+        <v>1.09339067</v>
+      </c>
+      <c r="J119">
+        <v>1.0555352499999999</v>
+      </c>
+      <c r="K119">
+        <f>Table47[[#This Row],[N]]*Table47[[#This Row],[interation]]/Table47[[#This Row],[time /s]]</f>
+        <v>1.1601072917275057</v>
+      </c>
+      <c r="L119">
+        <f>Table47[[#This Row],[time /s]]/3600</f>
+        <v>47.888290981111112</v>
+      </c>
+      <c r="M119" s="33">
+        <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
+        <v>1.0272944133494091</v>
+      </c>
+      <c r="N119" s="14">
+        <f t="shared" si="14"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O119">
+        <v>2.00060922820321</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>20000</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="21">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="K120" t="e">
+        <f>Table47[[#This Row],[N]]*Table47[[#This Row],[interation]]/Table47[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L120">
+        <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="H89">
-        <f>Table4[[#This Row],[time /s]]/3600</f>
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0.97232382002585904</v>
-      </c>
-      <c r="J89">
-        <v>1.14097567092479E-2</v>
+      <c r="M120" s="33" t="e">
+        <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N120" s="14">
+        <f t="shared" si="14"/>
+        <v>0.9742636907501151</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>1000</v>
-      </c>
-      <c r="B90" s="1">
-        <v>0.97681024324505505</v>
-      </c>
-      <c r="C90" s="1">
-        <v>3.7538272730722301E-3</v>
-      </c>
-      <c r="E90" s="25">
-        <f t="shared" si="10"/>
-        <v>2.6138226427994127E-3</v>
-      </c>
-      <c r="G90">
-        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <f>Table4[[#This Row],[time /s]]/3600</f>
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0.97681024324505505</v>
-      </c>
-      <c r="J90">
-        <v>3.7538272730722301E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>2000</v>
-      </c>
-      <c r="B91" s="1">
-        <v>0.96737858689582001</v>
-      </c>
-      <c r="C91" s="1">
-        <v>3.13060226043556E-3</v>
-      </c>
-      <c r="E91" s="25">
-        <f t="shared" si="10"/>
-        <v>-7.0669818855653155E-3</v>
-      </c>
-      <c r="G91">
-        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <f>Table4[[#This Row],[time /s]]/3600</f>
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0.96737858689582001</v>
-      </c>
-      <c r="J91">
-        <v>3.13060226043556E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>3000</v>
-      </c>
-      <c r="B92" s="1">
-        <v>0.96698493573115896</v>
-      </c>
-      <c r="C92" s="1">
-        <v>2.57491114706141E-3</v>
-      </c>
-      <c r="E92" s="25">
-        <f t="shared" si="10"/>
-        <v>-7.4710318038764267E-3</v>
-      </c>
-      <c r="G92">
-        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <f>Table4[[#This Row],[time /s]]/3600</f>
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0.96698493573115896</v>
-      </c>
-      <c r="J92">
-        <v>2.57491114706141E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>5000</v>
-      </c>
-      <c r="B93" s="1">
-        <v>0.97243306327952295</v>
-      </c>
-      <c r="C93" s="1">
-        <v>1.76687281059551E-3</v>
-      </c>
-      <c r="E93" s="25">
-        <f t="shared" si="10"/>
-        <v>-1.8789856257320769E-3</v>
-      </c>
-      <c r="G93">
-        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <f>Table4[[#This Row],[time /s]]/3600</f>
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0.97243306327952295</v>
-      </c>
-      <c r="J93">
-        <v>1.76687281059551E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>10000</v>
-      </c>
-      <c r="B94" s="1">
-        <v>0.97144522300455105</v>
-      </c>
-      <c r="C94" s="1">
-        <v>1.30808488959374E-3</v>
-      </c>
-      <c r="D94">
-        <v>48573.231963999999</v>
-      </c>
-      <c r="E94" s="25">
-        <f t="shared" si="10"/>
-        <v>-2.8929208512266102E-3</v>
-      </c>
-      <c r="F94">
-        <v>1.1336695346052901</v>
-      </c>
-      <c r="G94">
-        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
-        <v>4.8573231963999994</v>
-      </c>
-      <c r="H94">
-        <f>Table4[[#This Row],[time /s]]/3600</f>
-        <v>13.492564434444445</v>
-      </c>
-      <c r="I94">
-        <v>0.97144522300455105</v>
-      </c>
-      <c r="J94">
-        <v>1.30808488959374E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>50000</v>
-      </c>
-      <c r="B95" s="1">
-        <v>0.96949997275820399</v>
-      </c>
-      <c r="C95" s="27">
-        <v>6.0922820321060401E-4</v>
-      </c>
-      <c r="D95">
-        <v>198915.666834</v>
-      </c>
-      <c r="E95" s="26">
-        <f>B95/B$5-1</f>
-        <v>-4.8895571467344467E-3</v>
-      </c>
-      <c r="F95">
-        <v>1.06414831502961</v>
-      </c>
-      <c r="G95">
-        <f>Table4[[#This Row],[time /s]]/Table4[[#This Row],[N]]</f>
-        <v>3.9783133366799999</v>
-      </c>
-      <c r="H95" s="5">
-        <f>Table4[[#This Row],[time /s]]/3600</f>
-        <v>55.254351898333333</v>
-      </c>
-      <c r="I95">
-        <v>0.96949997275820399</v>
-      </c>
-      <c r="J95">
-        <v>6.0922820321060401E-4</v>
-      </c>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B121" s="1"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="34">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="L121" s="5"/>
+      <c r="M121" s="33"/>
+      <c r="N121" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>